--- a/vul.xlsx
+++ b/vul.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadit\work\clg\srip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D71D8E9-7358-4546-AB11-77D77B03A1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E825469-1D41-4220-9189-CFAEA69E8C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="670">
   <si>
     <t>name</t>
   </si>
@@ -109,12 +109,12 @@
     <t>transworld (tw1)</t>
   </si>
   <si>
+    <t>trans-pacific express (tpe) cable system</t>
+  </si>
+  <si>
     <t>shefa-2</t>
   </si>
   <si>
-    <t>trans-pacific express (tpe) cable system</t>
-  </si>
-  <si>
     <t>mainone</t>
   </si>
   <si>
@@ -145,33 +145,33 @@
     <t>bass strait-1</t>
   </si>
   <si>
+    <t>bcs east-west interlink</t>
+  </si>
+  <si>
     <t>baltica</t>
   </si>
   <si>
-    <t>bcs east-west interlink</t>
-  </si>
-  <si>
     <t>atlantic crossing-1 (ac-1)</t>
   </si>
   <si>
     <t>northstar</t>
   </si>
   <si>
+    <t>concerto</t>
+  </si>
+  <si>
     <t>alaska united east (au-east)</t>
   </si>
   <si>
-    <t>concerto</t>
-  </si>
-  <si>
     <t>coral sea cable system (cs²)</t>
   </si>
   <si>
+    <t>pan-american crossing (pac)</t>
+  </si>
+  <si>
     <t>pan european crossing (uk-ireland)</t>
   </si>
   <si>
-    <t>pan-american crossing (pac)</t>
-  </si>
-  <si>
     <t>south american crossing (sac)</t>
   </si>
   <si>
@@ -181,12 +181,12 @@
     <t>mednautilus submarine system</t>
   </si>
   <si>
+    <t>tata tgn-western europe</t>
+  </si>
+  <si>
     <t>i2i cable network (i2icn)</t>
   </si>
   <si>
-    <t>tata tgn-western europe</t>
-  </si>
-  <si>
     <t>bass strait-2</t>
   </si>
   <si>
@@ -196,12 +196,12 @@
     <t>svalbard undersea cable system</t>
   </si>
   <si>
+    <t>sweden-latvia</t>
+  </si>
+  <si>
     <t>cogim</t>
   </si>
   <si>
-    <t>sweden-latvia</t>
-  </si>
-  <si>
     <t>bharat lanka cable system</t>
   </si>
   <si>
@@ -211,24 +211,24 @@
     <t>jasuka</t>
   </si>
   <si>
+    <t>atlas offshore</t>
+  </si>
+  <si>
     <t>high-capacity undersea guernsey optical-fibre (hugo)</t>
   </si>
   <si>
-    <t>atlas offshore</t>
-  </si>
-  <si>
     <t>pipe pacific cable-1 (ppc-1)</t>
   </si>
   <si>
     <t>danice</t>
   </si>
   <si>
+    <t>honotua</t>
+  </si>
+  <si>
     <t>glo-1</t>
   </si>
   <si>
-    <t>honotua</t>
-  </si>
-  <si>
     <t>rønne-rødvig</t>
   </si>
   <si>
@@ -238,36 +238,36 @@
     <t>lower indian ocean network 2 (lion2)</t>
   </si>
   <si>
+    <t>bt-mt-1</t>
+  </si>
+  <si>
+    <t>almería-melilla (alme)</t>
+  </si>
+  <si>
     <t>transcan-2</t>
   </si>
   <si>
-    <t>bt-mt-1</t>
-  </si>
-  <si>
-    <t>almería-melilla (alme)</t>
-  </si>
-  <si>
     <t>penbal-4</t>
   </si>
   <si>
+    <t>lanis-1</t>
+  </si>
+  <si>
+    <t>uae-iran</t>
+  </si>
+  <si>
+    <t>lanis-2</t>
+  </si>
+  <si>
+    <t>lanis-3</t>
+  </si>
+  <si>
+    <t>finland-estonia 2 (eesf-2)</t>
+  </si>
+  <si>
     <t>corse-continent 4 (cc4)</t>
   </si>
   <si>
-    <t>uae-iran</t>
-  </si>
-  <si>
-    <t>lanis-2</t>
-  </si>
-  <si>
-    <t>lanis-3</t>
-  </si>
-  <si>
-    <t>lanis-1</t>
-  </si>
-  <si>
-    <t>finland-estonia 2 (eesf-2)</t>
-  </si>
-  <si>
     <t>b2js (jakarta-bangka-batam-singapore) cable system</t>
   </si>
   <si>
@@ -277,55 +277,58 @@
     <t>taino-carib</t>
   </si>
   <si>
+    <t>columbus-ii b</t>
+  </si>
+  <si>
+    <t>uk-channel islands-8</t>
+  </si>
+  <si>
+    <t>aden-djibouti</t>
+  </si>
+  <si>
+    <t>botnia</t>
+  </si>
+  <si>
+    <t>tegopa</t>
+  </si>
+  <si>
+    <t>latvia-sweden 1 (lv-se 1)</t>
+  </si>
+  <si>
+    <t>uk-channel islands-7</t>
+  </si>
+  <si>
+    <t>italy-croatia</t>
+  </si>
+  <si>
+    <t>americas-i north</t>
+  </si>
+  <si>
+    <t>penbal-5</t>
+  </si>
+  <si>
+    <t>guernsey-jersey-4</t>
+  </si>
+  <si>
+    <t>hawaii inter-island cable system (hics)</t>
+  </si>
+  <si>
     <t>cantat-3</t>
   </si>
   <si>
-    <t>aden-djibouti</t>
-  </si>
-  <si>
-    <t>uk-channel islands-7</t>
-  </si>
-  <si>
-    <t>latvia-sweden 1 (lv-se 1)</t>
-  </si>
-  <si>
-    <t>uk-channel islands-8</t>
-  </si>
-  <si>
-    <t>guernsey-jersey-4</t>
-  </si>
-  <si>
     <t>globalconnect denmark-sweden</t>
   </si>
   <si>
+    <t>denmark-sweden 17</t>
+  </si>
+  <si>
     <t>est-tet</t>
   </si>
   <si>
-    <t>penbal-5</t>
-  </si>
-  <si>
     <t>finland-estonia 3 (eesf-3)</t>
   </si>
   <si>
-    <t>columbus-ii b</t>
-  </si>
-  <si>
-    <t>americas-i north</t>
-  </si>
-  <si>
-    <t>denmark-sweden 17</t>
-  </si>
-  <si>
-    <t>botnia</t>
-  </si>
-  <si>
-    <t>italy-croatia</t>
-  </si>
-  <si>
-    <t>tegopa</t>
-  </si>
-  <si>
-    <t>hawaii inter-island cable system (hics)</t>
+    <t>sweden-estonia (ee-s 1)</t>
   </si>
   <si>
     <t>italy-malta</t>
@@ -340,265 +343,265 @@
     <t>italy-greece 1 (ig-1)</t>
   </si>
   <si>
+    <t>cadmos</t>
+  </si>
+  <si>
     <t>unisur</t>
   </si>
   <si>
+    <t>italy-monaco</t>
+  </si>
+  <si>
     <t>corse-continent 5 (cc5)</t>
   </si>
   <si>
-    <t>cadmos</t>
-  </si>
-  <si>
-    <t>italy-monaco</t>
-  </si>
-  <si>
-    <t>sweden-estonia (ee-s 1)</t>
-  </si>
-  <si>
     <t>interchange cable network 1 (icn1)</t>
   </si>
   <si>
+    <t>îles d'hyères cable</t>
+  </si>
+  <si>
+    <t>romsar 2</t>
+  </si>
+  <si>
+    <t>adria-1</t>
+  </si>
+  <si>
+    <t>izu islands cable system</t>
+  </si>
+  <si>
+    <t>denmark-sweden 18</t>
+  </si>
+  <si>
+    <t>jeju-mainland 2</t>
+  </si>
+  <si>
     <t>brazilian festoon</t>
   </si>
   <si>
     <t>bugio</t>
   </si>
   <si>
-    <t>adria-1</t>
-  </si>
-  <si>
-    <t>îles d'hyères cable</t>
-  </si>
-  <si>
-    <t>jeju-mainland 2</t>
-  </si>
-  <si>
-    <t>izu islands cable system</t>
-  </si>
-  <si>
-    <t>romsar 2</t>
-  </si>
-  <si>
-    <t>denmark-sweden 18</t>
+    <t>cayman-jamaica fiber system (cjfs)</t>
+  </si>
+  <si>
+    <t>hawaii island fibre network (hifn)</t>
+  </si>
+  <si>
+    <t>calvi-st. florent</t>
+  </si>
+  <si>
+    <t>cabo verde telecom domestic submarine cable phase 1</t>
+  </si>
+  <si>
+    <t>colombian festoon</t>
+  </si>
+  <si>
+    <t>pldt domestic fiber optic network (dfon)</t>
+  </si>
+  <si>
+    <t>bahamas 2</t>
+  </si>
+  <si>
+    <t>ulysses 2</t>
+  </si>
+  <si>
+    <t>italy-albania</t>
+  </si>
+  <si>
+    <t>st. thomas-st. croix system</t>
+  </si>
+  <si>
+    <t>mariana-guam cable</t>
+  </si>
+  <si>
+    <t>kafos</t>
+  </si>
+  <si>
+    <t>jscfs</t>
+  </si>
+  <si>
+    <t>berytar</t>
+  </si>
+  <si>
+    <t>antillas 1</t>
+  </si>
+  <si>
+    <t>miyazaki-okinawa cable (moc)</t>
   </si>
   <si>
     <t>aletar</t>
   </si>
   <si>
-    <t>antillas 1</t>
-  </si>
-  <si>
-    <t>colombian festoon</t>
-  </si>
-  <si>
-    <t>cayman-jamaica fiber system (cjfs)</t>
-  </si>
-  <si>
-    <t>calvi-st. florent</t>
-  </si>
-  <si>
-    <t>cabo verde telecom domestic submarine cable phase 1</t>
-  </si>
-  <si>
-    <t>st. thomas-st. croix system</t>
-  </si>
-  <si>
-    <t>bahamas 2</t>
-  </si>
-  <si>
-    <t>kafos</t>
-  </si>
-  <si>
-    <t>jscfs</t>
-  </si>
-  <si>
-    <t>mariana-guam cable</t>
-  </si>
-  <si>
-    <t>italy-albania</t>
-  </si>
-  <si>
-    <t>miyazaki-okinawa cable (moc)</t>
-  </si>
-  <si>
-    <t>hawaii island fibre network (hifn)</t>
-  </si>
-  <si>
-    <t>berytar</t>
-  </si>
-  <si>
-    <t>pldt domestic fiber optic network (dfon)</t>
-  </si>
-  <si>
-    <t>ulysses 2</t>
+    <t>danica north</t>
+  </si>
+  <si>
+    <t>farland north</t>
+  </si>
+  <si>
+    <t>italy-libya</t>
+  </si>
+  <si>
+    <t>bcs north - phase 1</t>
+  </si>
+  <si>
+    <t>taba-aqaba</t>
+  </si>
+  <si>
+    <t>azores fiber optic system (afos)</t>
+  </si>
+  <si>
+    <t>dalian-yantai cable</t>
+  </si>
+  <si>
+    <t>fiber optic gulf (fog)</t>
   </si>
   <si>
     <t>sagres</t>
   </si>
   <si>
-    <t>dalian-yantai cable</t>
-  </si>
-  <si>
-    <t>bcs north - phase 1</t>
-  </si>
-  <si>
-    <t>italy-libya</t>
-  </si>
-  <si>
-    <t>azores fiber optic system (afos)</t>
-  </si>
-  <si>
-    <t>taba-aqaba</t>
-  </si>
-  <si>
     <t>venezuelan festoon</t>
   </si>
   <si>
-    <t>danica north</t>
-  </si>
-  <si>
-    <t>fiber optic gulf (fog)</t>
-  </si>
-  <si>
-    <t>farland north</t>
+    <t>whidbey island-everett</t>
+  </si>
+  <si>
+    <t>whidbey island-camano island</t>
+  </si>
+  <si>
+    <t>alonso de ojeda</t>
+  </si>
+  <si>
+    <t>amerigo vespucci</t>
+  </si>
+  <si>
+    <t>sirius north</t>
   </si>
   <si>
     <t>sirius south</t>
   </si>
   <si>
+    <t>whidbey island-hat island</t>
+  </si>
+  <si>
+    <t>american-1</t>
+  </si>
+  <si>
     <t>solas</t>
   </si>
   <si>
-    <t>american-1</t>
-  </si>
-  <si>
-    <t>alonso de ojeda</t>
-  </si>
-  <si>
-    <t>whidbey island-everett</t>
+    <t>circe north</t>
+  </si>
+  <si>
+    <t>pan european crossing (uk-belgium)</t>
+  </si>
+  <si>
+    <t>pacific crossing-1 (pc-1)</t>
+  </si>
+  <si>
+    <t>haikou-beihai cable</t>
+  </si>
+  <si>
+    <t>sunoque i</t>
+  </si>
+  <si>
+    <t>sunoque ii</t>
+  </si>
+  <si>
+    <t>columbus-iii azores-portugal</t>
+  </si>
+  <si>
+    <t>circe south</t>
+  </si>
+  <si>
+    <t>whidbey island-seattle</t>
+  </si>
+  <si>
+    <t>tenerife-gran canaria</t>
   </si>
   <si>
     <t>national digital transmission network (ndtn)</t>
   </si>
   <si>
+    <t>japan information highway (jih)</t>
+  </si>
+  <si>
+    <t>ningbo-zhoushan cable</t>
+  </si>
+  <si>
     <t>tampnet offshore foc network</t>
   </si>
   <si>
-    <t>sirius north</t>
-  </si>
-  <si>
-    <t>sunoque ii</t>
-  </si>
-  <si>
-    <t>amerigo vespucci</t>
-  </si>
-  <si>
-    <t>whidbey island-seattle</t>
-  </si>
-  <si>
     <t>candalta</t>
   </si>
   <si>
-    <t>circe south</t>
-  </si>
-  <si>
-    <t>circe north</t>
-  </si>
-  <si>
-    <t>haikou-beihai cable</t>
-  </si>
-  <si>
-    <t>pacific crossing-1 (pc-1)</t>
-  </si>
-  <si>
-    <t>pan european crossing (uk-belgium)</t>
-  </si>
-  <si>
-    <t>japan information highway (jih)</t>
-  </si>
-  <si>
-    <t>ningbo-zhoushan cable</t>
-  </si>
-  <si>
     <t>lfon (libyan fiber optic network)</t>
   </si>
   <si>
-    <t>tenerife-gran canaria</t>
-  </si>
-  <si>
-    <t>whidbey island-camano island</t>
-  </si>
-  <si>
-    <t>columbus-iii azores-portugal</t>
-  </si>
-  <si>
-    <t>sunoque i</t>
-  </si>
-  <si>
-    <t>whidbey island-hat island</t>
+    <t>finland estonia connection 1 (fec-1)</t>
+  </si>
+  <si>
+    <t>georgia-russia</t>
+  </si>
+  <si>
+    <t>fehmarn bält</t>
+  </si>
+  <si>
+    <t>continente-madeira</t>
+  </si>
+  <si>
+    <t>globenet</t>
+  </si>
+  <si>
+    <t>finland estonia connection 2 (fec-2)</t>
+  </si>
+  <si>
+    <t>germany-denmark 3</t>
+  </si>
+  <si>
+    <t>mid-atlantic crossing (mac)</t>
   </si>
   <si>
     <t>tangerine</t>
   </si>
   <si>
-    <t>fehmarn bält</t>
+    <t>transcan-3</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>lic-lin-lamp</t>
+  </si>
+  <si>
+    <t>jeju-mainland 3</t>
+  </si>
+  <si>
+    <t>israel coasting 1 (ic-1)</t>
+  </si>
+  <si>
+    <t>bcs north - phase 2</t>
+  </si>
+  <si>
+    <t>scandinavian ring south</t>
   </si>
   <si>
     <t>americas-ii</t>
   </si>
   <si>
-    <t>continente-madeira</t>
-  </si>
-  <si>
-    <t>georgia-russia</t>
+    <t>elektra-globalconnect 1 (gc1)</t>
+  </si>
+  <si>
+    <t>southern cross cable network (sccn)</t>
+  </si>
+  <si>
+    <t>scandinavian ring north</t>
   </si>
   <si>
     <t>esat-2</t>
   </si>
   <si>
-    <t>elektra-globalconnect 1 (gc1)</t>
-  </si>
-  <si>
-    <t>finland estonia connection 1 (fec-1)</t>
-  </si>
-  <si>
-    <t>finland estonia connection 2 (fec-2)</t>
-  </si>
-  <si>
-    <t>scandinavian ring north</t>
-  </si>
-  <si>
-    <t>scandinavian ring south</t>
-  </si>
-  <si>
-    <t>southern cross cable network (sccn)</t>
-  </si>
-  <si>
-    <t>jeju-mainland 3</t>
-  </si>
-  <si>
-    <t>transcan-3</t>
-  </si>
-  <si>
-    <t>lic-lin-lamp</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>bcs north - phase 2</t>
-  </si>
-  <si>
-    <t>mid-atlantic crossing (mac)</t>
-  </si>
-  <si>
-    <t>globenet</t>
-  </si>
-  <si>
-    <t>israel coasting 1 (ic-1)</t>
-  </si>
-  <si>
-    <t>germany-denmark 3</t>
+    <t>north-west cable system</t>
   </si>
   <si>
     <t>aec-1</t>
@@ -610,279 +613,279 @@
     <t>exa north and south</t>
   </si>
   <si>
+    <t>aqualink</t>
+  </si>
+  <si>
+    <t>globalconnect 2 (gc2)</t>
+  </si>
+  <si>
     <t>flag north asia loop/reach north asia loop</t>
   </si>
   <si>
     <t>flag atlantic-1 (fa-1)</t>
   </si>
   <si>
-    <t>globalconnect 2 (gc2)</t>
-  </si>
-  <si>
     <t>chi</t>
   </si>
   <si>
-    <t>aqualink</t>
+    <t>nelson-levin</t>
+  </si>
+  <si>
+    <t>bahamas internet cable system (bics)</t>
+  </si>
+  <si>
+    <t>australia-japan cable (ajc)</t>
+  </si>
+  <si>
+    <t>tata tgn-atlantic south</t>
+  </si>
+  <si>
+    <t>thailand domestic submarine cable network (tdscn)</t>
+  </si>
+  <si>
+    <t>kattegat 2</t>
+  </si>
+  <si>
+    <t>balalink</t>
   </si>
   <si>
     <t>arcos</t>
   </si>
   <si>
-    <t>australia-japan cable (ajc)</t>
-  </si>
-  <si>
-    <t>kattegat 2</t>
-  </si>
-  <si>
-    <t>nelson-levin</t>
-  </si>
-  <si>
-    <t>balalink</t>
-  </si>
-  <si>
-    <t>thailand domestic submarine cable network (tdscn)</t>
-  </si>
-  <si>
-    <t>bahamas internet cable system (bics)</t>
-  </si>
-  <si>
-    <t>tata tgn-atlantic south</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>subcan link 2</t>
+  </si>
+  <si>
+    <t>subcan link 1</t>
   </si>
   <si>
     <t>muroran-hachinohe</t>
   </si>
   <si>
+    <t>korea-japan cable network (kjcn)</t>
+  </si>
+  <si>
+    <t>alpal-2</t>
+  </si>
+  <si>
+    <t>cabo verde telecom domestic submarine cable phase 2</t>
+  </si>
+  <si>
+    <t>tata tgn-pacific</t>
+  </si>
+  <si>
     <t>eac-c2c</t>
   </si>
   <si>
-    <t>subcan link 2</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>korea-japan cable network (kjcn)</t>
-  </si>
-  <si>
-    <t>alpal-2</t>
-  </si>
-  <si>
-    <t>tata tgn-pacific</t>
-  </si>
-  <si>
-    <t>cabo verde telecom domestic submarine cable phase 2</t>
-  </si>
-  <si>
-    <t>subcan link 1</t>
+    <t>link 3 phase-1</t>
+  </si>
+  <si>
+    <t>cam ring</t>
+  </si>
+  <si>
+    <t>saudi arabia-sudan-1 (sas-1)</t>
   </si>
   <si>
     <t>cross sound cable</t>
   </si>
   <si>
+    <t>link 1 phase-1</t>
+  </si>
+  <si>
     <t>thailand-indonesia-singapore (tis)</t>
   </si>
   <si>
-    <t>link 1 phase-1</t>
-  </si>
-  <si>
-    <t>cam ring</t>
-  </si>
-  <si>
-    <t>link 3 phase-1</t>
-  </si>
-  <si>
-    <t>saudi arabia-sudan-1 (sas-1)</t>
-  </si>
-  <si>
     <t>quintillion subsea cable network</t>
   </si>
   <si>
+    <t>oteglobe kokkini-bari</t>
+  </si>
+  <si>
+    <t>alaska united west (au-west)</t>
+  </si>
+  <si>
+    <t>sint maarten puerto rico network one (smpr-1)</t>
+  </si>
+  <si>
+    <t>east-west submarine cable system</t>
+  </si>
+  <si>
+    <t>epic malta-sicily cable system (emscs)</t>
+  </si>
+  <si>
+    <t>ingrid</t>
+  </si>
+  <si>
     <t>link 2 phase-1</t>
   </si>
   <si>
+    <t>farice-1</t>
+  </si>
+  <si>
     <t>qatar-u.a.e. submarine cable system</t>
   </si>
   <si>
-    <t>epic malta-sicily cable system (emscs)</t>
-  </si>
-  <si>
-    <t>farice-1</t>
+    <t>tata tgn-tata indicom</t>
   </si>
   <si>
     <t>okinawa-miyakojima-ishigaki</t>
   </si>
   <si>
-    <t>ingrid</t>
-  </si>
-  <si>
-    <t>oteglobe kokkini-bari</t>
-  </si>
-  <si>
-    <t>tata tgn-tata indicom</t>
-  </si>
-  <si>
-    <t>sint maarten puerto rico network one (smpr-1)</t>
-  </si>
-  <si>
-    <t>alaska united west (au-west)</t>
-  </si>
-  <si>
-    <t>east-west submarine cable system</t>
+    <t>janna</t>
+  </si>
+  <si>
+    <t>link 3 phase-2</t>
+  </si>
+  <si>
+    <t>med cable network</t>
+  </si>
+  <si>
+    <t>link 4 phase-2</t>
   </si>
   <si>
     <t>link 2 phase-2</t>
   </si>
   <si>
+    <t>kuwait-iran</t>
+  </si>
+  <si>
     <t>dumai-melaka cable system (dmcs)</t>
   </si>
   <si>
-    <t>med cable network</t>
-  </si>
-  <si>
-    <t>kuwait-iran</t>
-  </si>
-  <si>
-    <t>link 3 phase-2</t>
-  </si>
-  <si>
-    <t>link 4 phase-2</t>
+    <t>link 1 phase-2</t>
   </si>
   <si>
     <t>link 5 phase-2</t>
   </si>
   <si>
-    <t>janna</t>
-  </si>
-  <si>
-    <t>link 1 phase-2</t>
+    <t>java-kalimantan-sulawesi (jakasusi)</t>
+  </si>
+  <si>
+    <t>bahamas domestic submarine network (bdsni)</t>
   </si>
   <si>
     <t>globalconnect 3 (gc3)</t>
   </si>
   <si>
+    <t>global caribbean network (gcn)</t>
+  </si>
+  <si>
+    <t>globalconnect-kpn</t>
+  </si>
+  <si>
+    <t>southern caribbean fiber</t>
+  </si>
+  <si>
     <t>sarco</t>
   </si>
   <si>
-    <t>globalconnect-kpn</t>
-  </si>
-  <si>
-    <t>bahamas domestic submarine network (bdsni)</t>
-  </si>
-  <si>
-    <t>southern caribbean fiber</t>
-  </si>
-  <si>
-    <t>global caribbean network (gcn)</t>
-  </si>
-  <si>
-    <t>java-kalimantan-sulawesi (jakasusi)</t>
+    <t>dhiraagu-slt submarine cable network</t>
+  </si>
+  <si>
+    <t>konstanz-friedrichshafen</t>
+  </si>
+  <si>
+    <t>batam-rengit cable system (brcs)</t>
   </si>
   <si>
     <t>ixchel</t>
   </si>
   <si>
-    <t>dhiraagu-slt submarine cable network</t>
+    <t>jerry newton</t>
+  </si>
+  <si>
+    <t>kodiak kenai fiber link (kkfl)</t>
+  </si>
+  <si>
+    <t>polar circle cable</t>
+  </si>
+  <si>
+    <t>gemini bermuda</t>
+  </si>
+  <si>
+    <t>eclink</t>
+  </si>
+  <si>
+    <t>ruppione-isolella</t>
+  </si>
+  <si>
+    <t>sovetskaya gavan-ilyinskoye</t>
+  </si>
+  <si>
+    <t>trapani-kelibia 2 (keltra-2)</t>
   </si>
   <si>
     <t>e-llan</t>
   </si>
   <si>
-    <t>sovetskaya gavan-ilyinskoye</t>
-  </si>
-  <si>
-    <t>eclink</t>
-  </si>
-  <si>
-    <t>jerry newton</t>
-  </si>
-  <si>
-    <t>konstanz-friedrichshafen</t>
-  </si>
-  <si>
-    <t>gemini bermuda</t>
-  </si>
-  <si>
-    <t>trapani-kelibia 2 (keltra-2)</t>
-  </si>
-  <si>
-    <t>batam-rengit cable system (brcs)</t>
-  </si>
-  <si>
-    <t>polar circle cable</t>
-  </si>
-  <si>
-    <t>kodiak kenai fiber link (kkfl)</t>
-  </si>
-  <si>
-    <t>ruppione-isolella</t>
+    <t>caucasus cable system</t>
   </si>
   <si>
     <t>channel islands-9 liberty submarine cable</t>
   </si>
   <si>
+    <t>russia-japan cable network (rjcn)</t>
+  </si>
+  <si>
+    <t>sjjk</t>
+  </si>
+  <si>
     <t>colombia-florida subsea fiber (cfx-1)</t>
   </si>
   <si>
+    <t>sto-hel-one</t>
+  </si>
+  <si>
+    <t>hachijojima-mainland</t>
+  </si>
+  <si>
+    <t>gulf of mexico fiber optic network</t>
+  </si>
+  <si>
+    <t>go-1 mediterranean cable system</t>
+  </si>
+  <si>
+    <t>picot-1</t>
+  </si>
+  <si>
     <t>gondwana-1</t>
   </si>
   <si>
-    <t>gulf of mexico fiber optic network</t>
-  </si>
-  <si>
     <t>persona</t>
   </si>
   <si>
-    <t>picot-1</t>
-  </si>
-  <si>
-    <t>go-1 mediterranean cable system</t>
+    <t>s-u-b cable system</t>
+  </si>
+  <si>
+    <t>alaska united southeast (au-se)</t>
+  </si>
+  <si>
+    <t>moratelindo international cable system-1 (mic-1)</t>
+  </si>
+  <si>
+    <t>northern lights</t>
+  </si>
+  <si>
+    <t>hokkaido-sakhalin cable system (hscs)</t>
   </si>
   <si>
     <t>telstra endeavour</t>
   </si>
   <si>
-    <t>hokkaido-sakhalin cable system (hscs)</t>
+    <t>matrix cable system</t>
   </si>
   <si>
     <t>oskarshamn-visby</t>
   </si>
   <si>
-    <t>hachijojima-mainland</t>
-  </si>
-  <si>
-    <t>moratelindo international cable system-1 (mic-1)</t>
-  </si>
-  <si>
-    <t>matrix cable system</t>
-  </si>
-  <si>
-    <t>northern lights</t>
-  </si>
-  <si>
-    <t>russia-japan cable network (rjcn)</t>
-  </si>
-  <si>
-    <t>sjjk</t>
+    <t>vodafone greece domestic</t>
   </si>
   <si>
     <t>västervik-visby</t>
   </si>
   <si>
-    <t>alaska united southeast (au-se)</t>
-  </si>
-  <si>
-    <t>vodafone greece domestic</t>
-  </si>
-  <si>
-    <t>s-u-b cable system</t>
-  </si>
-  <si>
-    <t>caucasus cable system</t>
-  </si>
-  <si>
-    <t>sto-hel-one</t>
-  </si>
-  <si>
     <t>sakhalin-kuril islands cable</t>
   </si>
   <si>
@@ -892,238 +895,247 @@
     <t>indigo-west</t>
   </si>
   <si>
+    <t>the east african marine system (teams)</t>
+  </si>
+  <si>
+    <t>acs alaska-oregon network (akorn)</t>
+  </si>
+  <si>
+    <t>lower indian ocean network (lion)</t>
+  </si>
+  <si>
+    <t>melita 1</t>
+  </si>
+  <si>
+    <t>batam dumai melaka (bdm) cable system</t>
+  </si>
+  <si>
     <t>paniolo cable network</t>
   </si>
   <si>
     <t>batam singapore cable system (bscs)</t>
   </si>
   <si>
+    <t>jakabare</t>
+  </si>
+  <si>
     <t>samoa-american samoa (sas)</t>
   </si>
   <si>
+    <t>hannibal system</t>
+  </si>
+  <si>
     <t>caribbean-bermuda u.s. (cbus)</t>
   </si>
   <si>
-    <t>batam dumai melaka (bdm) cable system</t>
-  </si>
-  <si>
-    <t>melita 1</t>
-  </si>
-  <si>
-    <t>acs alaska-oregon network (akorn)</t>
-  </si>
-  <si>
-    <t>lower indian ocean network (lion)</t>
-  </si>
-  <si>
-    <t>the east african marine system (teams)</t>
-  </si>
-  <si>
-    <t>hannibal system</t>
-  </si>
-  <si>
-    <t>jakabare</t>
+    <t>tverrlinken</t>
+  </si>
+  <si>
+    <t>jaka2ladema</t>
+  </si>
+  <si>
+    <t>tobrok-emasaed cable system</t>
+  </si>
+  <si>
+    <t>konstanz-meersburg</t>
+  </si>
+  <si>
+    <t>mishima village</t>
   </si>
   <si>
     <t>unity/eac-pacific</t>
   </si>
   <si>
+    <t>hantru1 cable system</t>
+  </si>
+  <si>
     <t>comoros domestic cable system</t>
   </si>
   <si>
+    <t>pgascom</t>
+  </si>
+  <si>
+    <t>san andres isla tolu submarine cable (sait)</t>
+  </si>
+  <si>
     <t>suriname-guyana submarine cable system (sg-scs)</t>
   </si>
   <si>
-    <t>san andres isla tolu submarine cable (sait)</t>
-  </si>
-  <si>
-    <t>tobrok-emasaed cable system</t>
-  </si>
-  <si>
-    <t>konstanz-meersburg</t>
-  </si>
-  <si>
-    <t>tverrlinken</t>
-  </si>
-  <si>
-    <t>pgascom</t>
-  </si>
-  <si>
-    <t>mishima village</t>
-  </si>
-  <si>
-    <t>hantru1 cable system</t>
-  </si>
-  <si>
-    <t>jaka2ladema</t>
+    <t>east-west</t>
+  </si>
+  <si>
+    <t>turcyos-2</t>
+  </si>
+  <si>
+    <t>energinet lyngsa-laeso</t>
+  </si>
+  <si>
+    <t>cabo verde telecom domestic submarine cable phase 3</t>
+  </si>
+  <si>
+    <t>mataram kupang cable system (mkcs)</t>
+  </si>
+  <si>
+    <t>minamidaito island</t>
   </si>
   <si>
     <t>hawk</t>
   </si>
   <si>
+    <t>ogasawara cable network</t>
+  </si>
+  <si>
+    <t>hokkaido-rebun-rishiri</t>
+  </si>
+  <si>
+    <t>canalink</t>
+  </si>
+  <si>
+    <t>te north/tgn-eurasia/seacom/alexandros/medex</t>
+  </si>
+  <si>
+    <t>bicentenario</t>
+  </si>
+  <si>
+    <t>javali</t>
+  </si>
+  <si>
+    <t>fish north</t>
+  </si>
+  <si>
     <t>groote eylandt</t>
   </si>
   <si>
+    <t>romulo</t>
+  </si>
+  <si>
+    <t>ceiba-1</t>
+  </si>
+  <si>
     <t>pencan-8</t>
   </si>
   <si>
-    <t>bicentenario</t>
-  </si>
-  <si>
-    <t>javali</t>
-  </si>
-  <si>
-    <t>te north/tgn-eurasia/seacom/alexandros/medex</t>
-  </si>
-  <si>
-    <t>hokkaido-rebun-rishiri</t>
-  </si>
-  <si>
-    <t>mataram kupang cable system (mkcs)</t>
-  </si>
-  <si>
-    <t>minamidaito island</t>
-  </si>
-  <si>
-    <t>ogasawara cable network</t>
-  </si>
-  <si>
-    <t>ceiba-1</t>
-  </si>
-  <si>
     <t>saudi arabia-sudan-2 (sas-2)</t>
   </si>
   <si>
-    <t>romulo</t>
-  </si>
-  <si>
-    <t>cabo verde telecom domestic submarine cable phase 3</t>
-  </si>
-  <si>
-    <t>canalink</t>
-  </si>
-  <si>
-    <t>fish north</t>
-  </si>
-  <si>
     <t>energinet laeso-varberg</t>
   </si>
   <si>
-    <t>turcyos-2</t>
-  </si>
-  <si>
-    <t>energinet lyngsa-laeso</t>
-  </si>
-  <si>
-    <t>east-west</t>
+    <t>geo-eirgrid</t>
+  </si>
+  <si>
+    <t>exelera north</t>
+  </si>
+  <si>
+    <t>tt-1</t>
   </si>
   <si>
     <t>alba-1</t>
   </si>
   <si>
+    <t>alaska united turnagain arm (auta)</t>
+  </si>
+  <si>
     <t>seychelles to east africa system (seas)</t>
   </si>
   <si>
-    <t>alaska united turnagain arm (auta)</t>
-  </si>
-  <si>
-    <t>tt-1</t>
-  </si>
-  <si>
     <t>dhiraagu cable network</t>
   </si>
   <si>
     <t>cross-straits cable network (cscn)</t>
   </si>
   <si>
+    <t>emerald bridge fibres</t>
+  </si>
+  <si>
+    <t>libreville-port gentil</t>
+  </si>
+  <si>
+    <t>terra sw</t>
+  </si>
+  <si>
+    <t>arsat submarine fiber optic cable</t>
+  </si>
+  <si>
     <t>pishgaman oman iran (poi) network</t>
   </si>
   <si>
+    <t>tata tgn-gulf</t>
+  </si>
+  <si>
+    <t>jakarta-bangka-bintan-batam-singapore (b3js)</t>
+  </si>
+  <si>
+    <t>jonah</t>
+  </si>
+  <si>
     <t>gulf bridge international cable system/middle east north africa cable system (gbics/mena)</t>
   </si>
   <si>
-    <t>exelera north</t>
-  </si>
-  <si>
-    <t>emerald bridge fibres</t>
-  </si>
-  <si>
     <t>celtixconnect-1 (cc-1)</t>
   </si>
   <si>
-    <t>geo-eirgrid</t>
-  </si>
-  <si>
-    <t>terra sw</t>
-  </si>
-  <si>
-    <t>libreville-port gentil</t>
-  </si>
-  <si>
-    <t>jakarta-bangka-bintan-batam-singapore (b3js)</t>
-  </si>
-  <si>
-    <t>tata tgn-gulf</t>
-  </si>
-  <si>
-    <t>arsat submarine fiber optic cable</t>
-  </si>
-  <si>
-    <t>jonah</t>
+    <t>cat submarine network (csn)</t>
+  </si>
+  <si>
+    <t>guam okinawa kyushu incheon (goki)</t>
+  </si>
+  <si>
+    <t>silphium</t>
+  </si>
+  <si>
+    <t>southeast asia-japan cable (sjc)</t>
+  </si>
+  <si>
+    <t>boracay-palawan submarine cable system (bpscs)</t>
+  </si>
+  <si>
+    <t>saba, statia cable system (sscs)</t>
+  </si>
+  <si>
+    <t>lazaro cardenas-manzanillo santiago submarine cable system (lcmsscs)</t>
+  </si>
+  <si>
+    <t>java bali cable system (jbcs)</t>
+  </si>
+  <si>
+    <t>omran/epeg</t>
   </si>
   <si>
     <t>taiwan strait express-1 (tse-1)</t>
   </si>
   <si>
-    <t>guam okinawa kyushu incheon (goki)</t>
-  </si>
-  <si>
-    <t>cat submarine network (csn)</t>
-  </si>
-  <si>
-    <t>saba, statia cable system (sscs)</t>
-  </si>
-  <si>
-    <t>silphium</t>
-  </si>
-  <si>
-    <t>southeast asia-japan cable (sjc)</t>
-  </si>
-  <si>
-    <t>java bali cable system (jbcs)</t>
-  </si>
-  <si>
-    <t>lazaro cardenas-manzanillo santiago submarine cable system (lcmsscs)</t>
-  </si>
-  <si>
-    <t>boracay-palawan submarine cable system (bpscs)</t>
-  </si>
-  <si>
-    <t>omran/epeg</t>
+    <t>png lng</t>
+  </si>
+  <si>
+    <t>didon</t>
+  </si>
+  <si>
+    <t>skagerrak 4</t>
+  </si>
+  <si>
+    <t>palawan-iloilo cable system</t>
+  </si>
+  <si>
+    <t>roquetas-melilla (cam)</t>
+  </si>
+  <si>
+    <t>flores-corvo cable system</t>
+  </si>
+  <si>
+    <t>poseidon</t>
+  </si>
+  <si>
+    <t>sumatera bangka cable system (sbcs)</t>
+  </si>
+  <si>
+    <t>america movil submarine cable system-1 (amx-1)</t>
   </si>
   <si>
     <t>tarakan selor cable system (tscs)</t>
   </si>
   <si>
-    <t>flores-corvo cable system</t>
-  </si>
-  <si>
-    <t>roquetas-melilla (cam)</t>
-  </si>
-  <si>
-    <t>poseidon</t>
-  </si>
-  <si>
-    <t>sumatera bangka cable system (sbcs)</t>
-  </si>
-  <si>
-    <t>america movil submarine cable system-1 (amx-1)</t>
-  </si>
-  <si>
-    <t>skagerrak 4</t>
-  </si>
-  <si>
-    <t>didon</t>
+    <t>bt highlands and islands submarine cable system</t>
   </si>
   <si>
     <t>jambi-batam cable system (jiba)</t>
@@ -1135,15 +1147,6 @@
     <t>middle east north africa (mena) cable system/gulf bridge international</t>
   </si>
   <si>
-    <t>bt highlands and islands submarine cable system</t>
-  </si>
-  <si>
-    <t>png lng</t>
-  </si>
-  <si>
-    <t>palawan-iloilo cable system</t>
-  </si>
-  <si>
     <t>kerch strait cable</t>
   </si>
   <si>
@@ -1156,133 +1159,157 @@
     <t>luwuk tutuyan cable system (ltcs)</t>
   </si>
   <si>
+    <t>smpcs packet-1</t>
+  </si>
+  <si>
+    <t>nigeria cameroon submarine cable system (ncscs)</t>
+  </si>
+  <si>
     <t>segunda fos canal de chacao</t>
   </si>
   <si>
-    <t>smpcs packet-1</t>
+    <t>pacific caribbean cable system (pccs)</t>
+  </si>
+  <si>
+    <t>fos quellon-chacabuco</t>
   </si>
   <si>
     <t>exa express</t>
   </si>
   <si>
-    <t>nigeria cameroon submarine cable system (ncscs)</t>
-  </si>
-  <si>
-    <t>pacific caribbean cable system (pccs)</t>
-  </si>
-  <si>
-    <t>fos quellon-chacabuco</t>
-  </si>
-  <si>
     <t>zayo festoon</t>
   </si>
   <si>
+    <t>bodo-rost cable</t>
+  </si>
+  <si>
+    <t>avassa</t>
+  </si>
+  <si>
+    <t>balok</t>
+  </si>
+  <si>
     <t>nordbalt</t>
   </si>
   <si>
+    <t>nationwide submarine cable ooredoo maldives (nascom)</t>
+  </si>
+  <si>
+    <t>bay of bengal gateway (bbg)</t>
+  </si>
+  <si>
+    <t>lynn canal fiber</t>
+  </si>
+  <si>
+    <t>faster</t>
+  </si>
+  <si>
     <t>sea2shore</t>
   </si>
   <si>
-    <t>faster</t>
-  </si>
-  <si>
-    <t>bay of bengal gateway (bbg)</t>
+    <t>gtmo-1</t>
   </si>
   <si>
     <t>pencan-9</t>
   </si>
   <si>
-    <t>lynn canal fiber</t>
-  </si>
-  <si>
-    <t>avassa</t>
-  </si>
-  <si>
-    <t>north-west cable system</t>
-  </si>
-  <si>
-    <t>balok</t>
-  </si>
-  <si>
-    <t>gtmo-1</t>
-  </si>
-  <si>
     <t>ulleung-mainland 2</t>
   </si>
   <si>
-    <t>nationwide submarine cable ooredoo maldives (nascom)</t>
-  </si>
-  <si>
-    <t>bodo-rost cable</t>
-  </si>
-  <si>
     <t>peace cable</t>
   </si>
   <si>
+    <t>sea-us</t>
+  </si>
+  <si>
+    <t>projeto amazônia conectada (pac 01)</t>
+  </si>
+  <si>
+    <t>okinawa remote islands</t>
+  </si>
+  <si>
+    <t>energy bridge cable</t>
+  </si>
+  <si>
+    <t>monet</t>
+  </si>
+  <si>
+    <t>ceiba-2</t>
+  </si>
+  <si>
+    <t>malaysia-cambodia-thailand (mct) cable</t>
+  </si>
+  <si>
+    <t>atisa</t>
+  </si>
+  <si>
     <t>tasman global access (tga) cable</t>
   </si>
   <si>
-    <t>ceiba-2</t>
-  </si>
-  <si>
-    <t>sea-us</t>
-  </si>
-  <si>
-    <t>projeto amazônia conectada (pac 01)</t>
-  </si>
-  <si>
-    <t>okinawa remote islands</t>
-  </si>
-  <si>
-    <t>energy bridge cable</t>
-  </si>
-  <si>
-    <t>monet</t>
+    <t>strategic evolution underwater link (seul)</t>
+  </si>
+  <si>
+    <t>sistem kabel rakyat 1malaysia (skr1m)</t>
   </si>
   <si>
     <t>seabras-1</t>
   </si>
   <si>
-    <t>sistem kabel rakyat 1malaysia (skr1m)</t>
+    <t>labuan-brunei submarine cable</t>
   </si>
   <si>
     <t>gulf2africa (g2a)</t>
   </si>
   <si>
-    <t>strategic evolution underwater link (seul)</t>
-  </si>
-  <si>
-    <t>atisa</t>
-  </si>
-  <si>
-    <t>malaysia-cambodia-thailand (mct) cable</t>
-  </si>
-  <si>
-    <t>labuan-brunei submarine cable</t>
+    <t>indonesia global gateway (igg) system</t>
+  </si>
+  <si>
+    <t>south atlantic cable system (sacs)</t>
+  </si>
+  <si>
+    <t>st. pierre and miquelon cable</t>
+  </si>
+  <si>
+    <t>seax-1</t>
+  </si>
+  <si>
+    <t>natitua</t>
+  </si>
+  <si>
+    <t>jakarta surabaya cable system (jayabaya)</t>
+  </si>
+  <si>
+    <t>palapa ring middle</t>
   </si>
   <si>
     <t>rompin-tioman island</t>
   </si>
   <si>
-    <t>south atlantic cable system (sacs)</t>
-  </si>
-  <si>
-    <t>st. pierre and miquelon cable</t>
+    <t>tui-samoa</t>
+  </si>
+  <si>
+    <t>hawaiki</t>
   </si>
   <si>
     <t>sir abu nu’ayr cable</t>
   </si>
   <si>
-    <t>indonesia global gateway (igg) system</t>
+    <t>palapa ring west</t>
+  </si>
+  <si>
+    <t>new cross pacific (ncp) cable system</t>
+  </si>
+  <si>
+    <t>tannat</t>
+  </si>
+  <si>
+    <t>marea</t>
   </si>
   <si>
     <t>cyclades a</t>
   </si>
   <si>
-    <t>new cross pacific (ncp) cable system</t>
-  </si>
-  <si>
-    <t>jakarta surabaya cable system (jayabaya)</t>
+    <t>brusa</t>
   </si>
   <si>
     <t>junior</t>
@@ -1291,118 +1318,151 @@
     <t>lumut-pangkor island</t>
   </si>
   <si>
-    <t>natitua</t>
-  </si>
-  <si>
-    <t>marea</t>
-  </si>
-  <si>
-    <t>brusa</t>
-  </si>
-  <si>
-    <t>tannat</t>
-  </si>
-  <si>
-    <t>tui-samoa</t>
-  </si>
-  <si>
-    <t>palapa ring west</t>
-  </si>
-  <si>
-    <t>hawaiki</t>
-  </si>
-  <si>
-    <t>palapa ring middle</t>
-  </si>
-  <si>
-    <t>seax-1</t>
+    <t>caribbean regional communications infrastructure program (carcip)</t>
+  </si>
+  <si>
+    <t>x-link submarine cable</t>
+  </si>
+  <si>
+    <t>kanawa</t>
+  </si>
+  <si>
+    <t>e-finest</t>
+  </si>
+  <si>
+    <t>sovetskaya gavan-uglegorsk</t>
   </si>
   <si>
     <t>denpasar-waingapu cable systems</t>
   </si>
   <si>
+    <t>eastern light sweden-finland i</t>
+  </si>
+  <si>
+    <t>chuuk-pohnpei cable</t>
+  </si>
+  <si>
+    <t>mauritius and rodrigues submarine cable system (mars)</t>
+  </si>
+  <si>
+    <t>indigo-central</t>
+  </si>
+  <si>
     <t>sorsogon-samar submarine fiber optical interconnection project (sssfoip)</t>
   </si>
   <si>
-    <t>caribbean regional communications infrastructure program (carcip)</t>
+    <t>tanjun pandan-sungai kakap cable system</t>
+  </si>
+  <si>
+    <t>besut-perhentian islands</t>
+  </si>
+  <si>
+    <t>5 villages 6 islands</t>
   </si>
   <si>
     <t>vancouver-bowen island-vancouver island</t>
   </si>
   <si>
-    <t>5 villages 6 islands</t>
-  </si>
-  <si>
-    <t>x-link submarine cable</t>
-  </si>
-  <si>
-    <t>kanawa</t>
-  </si>
-  <si>
-    <t>besut-perhentian islands</t>
+    <t>palapa ring east</t>
+  </si>
+  <si>
+    <t>fly-lion3</t>
+  </si>
+  <si>
+    <t>padang-tua pejat</t>
   </si>
   <si>
     <t>lake albert 1</t>
   </si>
   <si>
+    <t>kupang-alor cable systems</t>
+  </si>
+  <si>
+    <t>gtmo-pr</t>
+  </si>
+  <si>
+    <t>rockabill</t>
+  </si>
+  <si>
+    <t>pasuli</t>
+  </si>
+  <si>
+    <t>damai cable system</t>
+  </si>
+  <si>
+    <t>crosslake fibre</t>
+  </si>
+  <si>
+    <t>globalconnect 6 (gc6)</t>
+  </si>
+  <si>
     <t>gulf of california cable</t>
   </si>
   <si>
-    <t>fly-lion3</t>
-  </si>
-  <si>
-    <t>rockabill</t>
-  </si>
-  <si>
-    <t>sovetskaya gavan-uglegorsk</t>
-  </si>
-  <si>
-    <t>e-finest</t>
-  </si>
-  <si>
-    <t>eastern light sweden-finland i</t>
-  </si>
-  <si>
-    <t>damai cable system</t>
-  </si>
-  <si>
-    <t>crosslake fibre</t>
-  </si>
-  <si>
-    <t>indigo-central</t>
-  </si>
-  <si>
-    <t>mauritius and rodrigues submarine cable system (mars)</t>
-  </si>
-  <si>
-    <t>tanjun pandan-sungai kakap cable system</t>
-  </si>
-  <si>
-    <t>chuuk-pohnpei cable</t>
-  </si>
-  <si>
-    <t>pasuli</t>
-  </si>
-  <si>
-    <t>gtmo-pr</t>
-  </si>
-  <si>
-    <t>globalconnect 6 (gc6)</t>
-  </si>
-  <si>
-    <t>palapa ring east</t>
-  </si>
-  <si>
-    <t>padang-tua pejat</t>
-  </si>
-  <si>
-    <t>kupang-alor cable systems</t>
+    <t>amitie</t>
   </si>
   <si>
     <t>darwin-jakarta-singapore cable (djsc)</t>
   </si>
   <si>
-    <t>amitie</t>
+    <t>south atlantic inter link (sail)</t>
+  </si>
+  <si>
+    <t>oran-valencia (orval)</t>
+  </si>
+  <si>
+    <t>cook strait</t>
+  </si>
+  <si>
+    <t>dos continentes l &amp; ll</t>
+  </si>
+  <si>
+    <t>jupiter</t>
+  </si>
+  <si>
+    <t>malta-gozo cable</t>
+  </si>
+  <si>
+    <t>japan-guam-australia north (jga-n)</t>
+  </si>
+  <si>
+    <t>manatua</t>
+  </si>
+  <si>
+    <t>japan-guam-australia south (jga-s)</t>
+  </si>
+  <si>
+    <t>chennai-andaman &amp; nicobar islands cable (cani)</t>
+  </si>
+  <si>
+    <t>cyclades b</t>
+  </si>
+  <si>
+    <t>curie</t>
+  </si>
+  <si>
+    <t>okinawa cellular cable</t>
+  </si>
+  <si>
+    <t>havfrue/aec-2</t>
+  </si>
+  <si>
+    <t>guadeloupe cable des iles du sud (gcis)</t>
+  </si>
+  <si>
+    <t>fibra optica al pacífico</t>
+  </si>
+  <si>
+    <t>eviny digital</t>
+  </si>
+  <si>
+    <t>skagenfiber west</t>
+  </si>
+  <si>
+    <t>prat</t>
+  </si>
+  <si>
+    <t>fibra optica austral</t>
   </si>
   <si>
     <t>ketchcan1 submarine fiber cable system</t>
@@ -1411,628 +1471,565 @@
     <t>lake albert 2</t>
   </si>
   <si>
-    <t>havfrue/aec-2</t>
-  </si>
-  <si>
-    <t>okinawa cellular cable</t>
-  </si>
-  <si>
-    <t>guadeloupe cable des iles du sud (gcis)</t>
-  </si>
-  <si>
-    <t>fibra optica austral</t>
-  </si>
-  <si>
-    <t>prat</t>
-  </si>
-  <si>
-    <t>oran-valencia (orval)</t>
-  </si>
-  <si>
-    <t>eviny digital</t>
-  </si>
-  <si>
-    <t>skagenfiber west</t>
-  </si>
-  <si>
-    <t>fibra optica al pacífico</t>
-  </si>
-  <si>
-    <t>dos continentes l &amp; ll</t>
-  </si>
-  <si>
-    <t>chennai-andaman &amp; nicobar islands cable (cani)</t>
-  </si>
-  <si>
-    <t>south atlantic inter link (sail)</t>
-  </si>
-  <si>
-    <t>cyclades b</t>
-  </si>
-  <si>
-    <t>curie</t>
-  </si>
-  <si>
-    <t>malta-gozo cable</t>
-  </si>
-  <si>
-    <t>cook strait</t>
-  </si>
-  <si>
-    <t>japan-guam-australia south (jga-s)</t>
-  </si>
-  <si>
-    <t>japan-guam-australia north (jga-n)</t>
-  </si>
-  <si>
-    <t>jupiter</t>
-  </si>
-  <si>
-    <t>manatua</t>
+    <t>hainan to hong kong express (h2he)</t>
+  </si>
+  <si>
+    <t>sape-labuan bajo-ende-kupang cable systems</t>
   </si>
   <si>
     <t>scylla</t>
   </si>
   <si>
+    <t>projeto amazônia conectada (pac 02)</t>
+  </si>
+  <si>
+    <t>djibouti africa regional express 1 (dare 1)</t>
+  </si>
+  <si>
+    <t>south pacific cable system (spcs)/mistral</t>
+  </si>
+  <si>
+    <t>no-uk</t>
+  </si>
+  <si>
+    <t>ellalink</t>
+  </si>
+  <si>
+    <t>crosschannel fibre</t>
+  </si>
+  <si>
+    <t>dunant</t>
+  </si>
+  <si>
+    <t>minoas east and west</t>
+  </si>
+  <si>
+    <t>malbec</t>
+  </si>
+  <si>
+    <t>batam sarawak internet cable system (basics)</t>
+  </si>
+  <si>
+    <t>meltingpot indianoceanic submarine system (metiss)</t>
+  </si>
+  <si>
+    <t>maroc telecom west africa</t>
+  </si>
+  <si>
     <t>converge domestic submarine cable network (cdscn)</t>
   </si>
   <si>
-    <t>dunant</t>
-  </si>
-  <si>
-    <t>minoas east and west</t>
-  </si>
-  <si>
-    <t>djibouti africa regional express 1 (dare 1)</t>
-  </si>
-  <si>
-    <t>ellalink</t>
-  </si>
-  <si>
-    <t>projeto amazônia conectada (pac 02)</t>
-  </si>
-  <si>
-    <t>no-uk</t>
-  </si>
-  <si>
-    <t>sape-labuan bajo-ende-kupang cable systems</t>
-  </si>
-  <si>
-    <t>hainan to hong kong express (h2he)</t>
-  </si>
-  <si>
-    <t>south pacific cable system (spcs)/mistral</t>
-  </si>
-  <si>
-    <t>meltingpot indianoceanic submarine system (metiss)</t>
-  </si>
-  <si>
-    <t>crosschannel fibre</t>
-  </si>
-  <si>
-    <t>batam sarawak internet cable system (basics)</t>
-  </si>
-  <si>
-    <t>maroc telecom west africa</t>
-  </si>
-  <si>
-    <t>malbec</t>
-  </si>
-  <si>
     <t>maldives sri lanka cable (msc)</t>
   </si>
   <si>
+    <t>eaufon 1</t>
+  </si>
+  <si>
+    <t>norte conectado (infovia 00)</t>
+  </si>
+  <si>
+    <t>scotland-northern ireland 3</t>
+  </si>
+  <si>
+    <t>n0r5ke viking</t>
+  </si>
+  <si>
+    <t>submarine cable in the philippines (scip)</t>
+  </si>
+  <si>
     <t>scotland-northern ireland 4</t>
   </si>
   <si>
-    <t>n0r5ke viking</t>
+    <t>southern cross next</t>
+  </si>
+  <si>
+    <t>hronn</t>
+  </si>
+  <si>
+    <t>groix 4</t>
+  </si>
+  <si>
+    <t>oman australia cable (oac)</t>
+  </si>
+  <si>
+    <t>pacific light cable network (plcn)</t>
+  </si>
+  <si>
+    <t>havhingsten/north sea connect (nsc)</t>
+  </si>
+  <si>
+    <t>zeus</t>
+  </si>
+  <si>
+    <t>kitadaito island</t>
+  </si>
+  <si>
+    <t>yuza-tobishima</t>
+  </si>
+  <si>
+    <t>awashima-murakami</t>
+  </si>
+  <si>
+    <t>au-aleutian</t>
+  </si>
+  <si>
+    <t>grace hopper</t>
+  </si>
+  <si>
+    <t>petropavlovsk-kamchatsky - anadyr</t>
+  </si>
+  <si>
+    <t>gondwana-2/picot-2</t>
   </si>
   <si>
     <t>havhingsten/celtixconnect-2 (cc-2)</t>
   </si>
   <si>
-    <t>au-aleutian</t>
+    <t>polar express</t>
   </si>
   <si>
     <t>thetis</t>
   </si>
   <si>
-    <t>submarine cable in the philippines (scip)</t>
-  </si>
-  <si>
-    <t>awashima-murakami</t>
-  </si>
-  <si>
-    <t>scotland-northern ireland 3</t>
-  </si>
-  <si>
-    <t>southern cross next</t>
-  </si>
-  <si>
-    <t>oman australia cable (oac)</t>
-  </si>
-  <si>
-    <t>norte conectado (infovia 00)</t>
-  </si>
-  <si>
-    <t>eaufon 1</t>
-  </si>
-  <si>
-    <t>grace hopper</t>
-  </si>
-  <si>
-    <t>polar express</t>
-  </si>
-  <si>
-    <t>petropavlovsk-kamchatsky - anadyr</t>
-  </si>
-  <si>
-    <t>groix 4</t>
-  </si>
-  <si>
-    <t>hronn</t>
-  </si>
-  <si>
     <t>havsil</t>
   </si>
   <si>
-    <t>zeus</t>
-  </si>
-  <si>
-    <t>pacific light cable network (plcn)</t>
-  </si>
-  <si>
-    <t>gondwana-2/picot-2</t>
-  </si>
-  <si>
-    <t>havhingsten/north sea connect (nsc)</t>
-  </si>
-  <si>
-    <t>yuza-tobishima</t>
-  </si>
-  <si>
-    <t>kitadaito island</t>
+    <t>philippine domestic submarine cable network (pdscn)</t>
   </si>
   <si>
     <t>sealink</t>
   </si>
   <si>
+    <t>red2med</t>
+  </si>
+  <si>
+    <t>hokkaido-akita cable</t>
+  </si>
+  <si>
+    <t>patara-2</t>
+  </si>
+  <si>
+    <t>equiano</t>
+  </si>
+  <si>
+    <t>r100 north</t>
+  </si>
+  <si>
+    <t>yui</t>
+  </si>
+  <si>
+    <t>jalapati</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>medloop</t>
+  </si>
+  <si>
+    <t>tautira-teahupo'o</t>
+  </si>
+  <si>
+    <t>tko connect</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>saudi vision</t>
+  </si>
+  <si>
+    <t>umo</t>
+  </si>
+  <si>
+    <t>unitel north submarine cable (unsc)</t>
+  </si>
+  <si>
+    <t>ultramar ge</t>
+  </si>
+  <si>
+    <t>iris</t>
+  </si>
+  <si>
+    <t>norte conectado (infovia 01)</t>
+  </si>
+  <si>
+    <t>norfest</t>
+  </si>
+  <si>
+    <t>ionian</t>
+  </si>
+  <si>
+    <t>senegal horn of africa regional express (share) cable</t>
+  </si>
+  <si>
+    <t>natitua sud</t>
+  </si>
+  <si>
+    <t>mercator</t>
+  </si>
+  <si>
     <t>trans adriatic express (tae)</t>
   </si>
   <si>
-    <t>medloop</t>
-  </si>
-  <si>
-    <t>jalapati</t>
-  </si>
-  <si>
-    <t>natitua sud</t>
-  </si>
-  <si>
-    <t>tautira-teahupo'o</t>
-  </si>
-  <si>
-    <t>tko connect</t>
+    <t>jeju-udo</t>
   </si>
   <si>
     <t>topaz</t>
   </si>
   <si>
+    <t>arimao</t>
+  </si>
+  <si>
     <t>tokelau submarine cable</t>
   </si>
   <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>ionian</t>
-  </si>
-  <si>
-    <t>senegal horn of africa regional express (share) cable</t>
-  </si>
-  <si>
-    <t>iris</t>
-  </si>
-  <si>
-    <t>red2med</t>
-  </si>
-  <si>
-    <t>norfest</t>
-  </si>
-  <si>
-    <t>equiano</t>
-  </si>
-  <si>
-    <t>yui</t>
-  </si>
-  <si>
-    <t>umo</t>
-  </si>
-  <si>
-    <t>r100 north</t>
-  </si>
-  <si>
-    <t>norte conectado (infovia 01)</t>
-  </si>
-  <si>
-    <t>saudi vision</t>
-  </si>
-  <si>
-    <t>hokkaido-akita cable</t>
-  </si>
-  <si>
-    <t>philippine domestic submarine cable network (pdscn)</t>
-  </si>
-  <si>
-    <t>patara-2</t>
-  </si>
-  <si>
-    <t>ultramar ge</t>
-  </si>
-  <si>
-    <t>unitel north submarine cable (unsc)</t>
-  </si>
-  <si>
-    <t>arimao</t>
-  </si>
-  <si>
-    <t>jeju-udo</t>
-  </si>
-  <si>
-    <t>mercator</t>
+    <t>mist</t>
   </si>
   <si>
     <t>nuvem</t>
   </si>
   <si>
+    <t>india asia xpress (iax)</t>
+  </si>
+  <si>
+    <t>caspian crossing</t>
+  </si>
+  <si>
+    <t>carnival submarine network-1 (csn-1)</t>
+  </si>
+  <si>
+    <t>celia</t>
+  </si>
+  <si>
+    <t>olisipo</t>
+  </si>
+  <si>
+    <t>nome to homer express (nthe)</t>
+  </si>
+  <si>
+    <t>new cam ring</t>
+  </si>
+  <si>
+    <t>swansea-brean</t>
+  </si>
+  <si>
+    <t>halaihai</t>
+  </si>
+  <si>
+    <t>kochi-lakshadweep islands (kli-sofc)</t>
+  </si>
+  <si>
+    <t>la gomera-el hierro</t>
+  </si>
+  <si>
+    <t>umoja</t>
+  </si>
+  <si>
+    <t>eaufon 2</t>
+  </si>
+  <si>
     <t>notes: data shows publicly announced occurrences of cable faults over the past few years. the data shown below is not a comprehensive list of cable faults that happened in the world; it is limited to what have been disclosed to the public.</t>
   </si>
   <si>
+    <t>eaufon 3</t>
+  </si>
+  <si>
     <t>ice iv</t>
   </si>
   <si>
+    <t>orca</t>
+  </si>
+  <si>
+    <t>emc west-2</t>
+  </si>
+  <si>
+    <t>emc west-1</t>
+  </si>
+  <si>
+    <t>iceni</t>
+  </si>
+  <si>
+    <t>http://www.telegeography.com</t>
+  </si>
+  <si>
+    <t>honomoana</t>
+  </si>
+  <si>
     <t>isle au haut cable</t>
   </si>
   <si>
     <t>ioema</t>
   </si>
   <si>
+    <t>insica</t>
+  </si>
+  <si>
     <t>djibouti africa regional express 1 (dare1)</t>
   </si>
   <si>
+    <t>domestic submarine cable of maldives (dscom)</t>
+  </si>
+  <si>
     <t>eagle</t>
   </si>
   <si>
-    <t>eaufon 3</t>
+    <t>deep blue one</t>
+  </si>
+  <si>
+    <t>barat timur indonesia-2 (bti-2)</t>
+  </si>
+  <si>
+    <t>bulikula</t>
+  </si>
+  <si>
+    <t>barat timur indonesia-1 (bti-1)</t>
+  </si>
+  <si>
+    <t>source: telegeography</t>
+  </si>
+  <si>
+    <t>norte conectado (infovia 03)</t>
   </si>
   <si>
     <t>seamewe-3</t>
   </si>
   <si>
+    <t>sealink south</t>
+  </si>
+  <si>
+    <t>hawaiki nui 1</t>
+  </si>
+  <si>
+    <t>hdr2</t>
+  </si>
+  <si>
+    <t>finland estonia connection (fec)</t>
+  </si>
+  <si>
+    <t>estepona-tetouan</t>
+  </si>
+  <si>
+    <t>proa</t>
+  </si>
+  <si>
     <t>seamewe-6</t>
   </si>
   <si>
-    <t>eaufon 2</t>
-  </si>
-  <si>
-    <t>orca</t>
-  </si>
-  <si>
-    <t>nome to homer express (nthe)</t>
-  </si>
-  <si>
-    <t>honomoana</t>
-  </si>
-  <si>
-    <t>proa</t>
-  </si>
-  <si>
-    <t>finland estonia connection (fec)</t>
+    <t>fish south</t>
+  </si>
+  <si>
+    <t>gc-lnz-fu ring</t>
   </si>
   <si>
     <t>piano isole minori</t>
   </si>
   <si>
-    <t>fish south</t>
+    <t>report: global bandwidth research service</t>
+  </si>
+  <si>
+    <t>hdr1</t>
+  </si>
+  <si>
+    <t>africa-1</t>
+  </si>
+  <si>
+    <t>apricot</t>
   </si>
   <si>
     <t>fish west</t>
   </si>
   <si>
-    <t>hdr1</t>
-  </si>
-  <si>
-    <t>hdr2</t>
-  </si>
-  <si>
-    <t>la gomera-el hierro</t>
-  </si>
-  <si>
-    <t>kochi-lakshadweep islands (kli-sofc)</t>
+    <t>hawaiian islands fiber link (hifl)</t>
+  </si>
+  <si>
+    <t>arctic way</t>
   </si>
   <si>
     <t>andromeda</t>
   </si>
   <si>
-    <t>apricot</t>
-  </si>
-  <si>
-    <t>umoja</t>
-  </si>
-  <si>
-    <t>africa-1</t>
-  </si>
-  <si>
-    <t>hawaiian islands fiber link (hifl)</t>
-  </si>
-  <si>
-    <t>http://www.telegeography.com</t>
-  </si>
-  <si>
-    <t>iceni</t>
-  </si>
-  <si>
-    <t>gc-lnz-fu ring</t>
-  </si>
-  <si>
-    <t>hawaiki nui 1</t>
-  </si>
-  <si>
     <t>© copyright 2025 primetrica, inc. all rights reserved.</t>
   </si>
   <si>
-    <t>halaihai</t>
-  </si>
-  <si>
-    <t>arctic way</t>
+    <t>vietnam-singapore cable system (vts)</t>
+  </si>
+  <si>
+    <t>asia link cable (alc)</t>
   </si>
   <si>
     <t>2africa</t>
   </si>
   <si>
-    <t>vietnam-singapore cable system (vts)</t>
+    <t>tikal-amx3</t>
+  </si>
+  <si>
+    <t>bangladesh private cable system (bpcs)</t>
+  </si>
+  <si>
+    <t>tenerife-la palma</t>
+  </si>
+  <si>
+    <t>tasman ring network</t>
+  </si>
+  <si>
+    <t>tat-14</t>
+  </si>
+  <si>
+    <t>taihei</t>
+  </si>
+  <si>
+    <t>tabua</t>
+  </si>
+  <si>
+    <t>cable</t>
+  </si>
+  <si>
+    <t>tamtam</t>
+  </si>
+  <si>
+    <t>australia connect interlink</t>
+  </si>
+  <si>
+    <t>aurora</t>
+  </si>
+  <si>
+    <t>asia connect cable-1 (acc-1)</t>
   </si>
   <si>
     <t>biznet nusantara cable system-1 (bncs-1)</t>
   </si>
   <si>
+    <t>asia direct cable (adc)</t>
+  </si>
+  <si>
     <t>kangaroo island 2</t>
   </si>
   <si>
-    <t>barat timur indonesia-1 (bti-1)</t>
-  </si>
-  <si>
-    <t>australia connect interlink</t>
-  </si>
-  <si>
-    <t>barat timur indonesia-2 (bti-2)</t>
-  </si>
-  <si>
-    <t>bulikula</t>
-  </si>
-  <si>
-    <t>tasman ring network</t>
+    <t>bosun</t>
+  </si>
+  <si>
+    <t>connected coast</t>
+  </si>
+  <si>
+    <t>bridge one</t>
+  </si>
+  <si>
+    <t>manta</t>
+  </si>
+  <si>
+    <t>confluence-1</t>
+  </si>
+  <si>
+    <t>sydney-melbourne-adelaide-perth (smap)</t>
   </si>
   <si>
     <t>cadmos-2</t>
   </si>
   <si>
-    <t>bangladesh private cable system (bpcs)</t>
-  </si>
-  <si>
-    <t>bridge one</t>
-  </si>
-  <si>
-    <t>taihei</t>
-  </si>
-  <si>
-    <t>tamtam</t>
-  </si>
-  <si>
-    <t>cable</t>
-  </si>
-  <si>
-    <t>tabua</t>
-  </si>
-  <si>
-    <t>tikal-amx3</t>
-  </si>
-  <si>
-    <t>asia direct cable (adc)</t>
-  </si>
-  <si>
-    <t>asia link cable (alc)</t>
-  </si>
-  <si>
-    <t>tenerife-la palma</t>
-  </si>
-  <si>
-    <t>asia connect cable-1 (acc-1)</t>
-  </si>
-  <si>
-    <t>olisipo</t>
-  </si>
-  <si>
-    <t>report: global bandwidth research service</t>
-  </si>
-  <si>
-    <t>estepona-tetouan</t>
-  </si>
-  <si>
-    <t>emc west-2</t>
-  </si>
-  <si>
-    <t>emc west-1</t>
-  </si>
-  <si>
-    <t>domestic submarine cable of maldives (dscom)</t>
-  </si>
-  <si>
-    <t>norte conectado (infovia 03)</t>
-  </si>
-  <si>
-    <t>north west cable system</t>
-  </si>
-  <si>
-    <t>india asia xpress (iax)</t>
-  </si>
-  <si>
-    <t>insica</t>
-  </si>
-  <si>
-    <t>mist</t>
-  </si>
-  <si>
-    <t>sealink south</t>
-  </si>
-  <si>
-    <t>new cam ring</t>
-  </si>
-  <si>
-    <t>aurora</t>
-  </si>
-  <si>
-    <t>tat-14</t>
-  </si>
-  <si>
-    <t>carnival submarine network-1 (csn-1)</t>
-  </si>
-  <si>
-    <t>connected coast</t>
-  </si>
-  <si>
-    <t>confluence-1</t>
-  </si>
-  <si>
-    <t>source: telegeography</t>
-  </si>
-  <si>
-    <t>manta</t>
-  </si>
-  <si>
-    <t>bosun</t>
-  </si>
-  <si>
-    <t>swansea-brean</t>
-  </si>
-  <si>
-    <t>sydney-melbourne-adelaide-perth (smap)</t>
-  </si>
-  <si>
-    <t>deep blue one</t>
-  </si>
-  <si>
-    <t>caspian crossing</t>
-  </si>
-  <si>
-    <t>celia</t>
+    <t>airraq</t>
+  </si>
+  <si>
+    <t>-inf</t>
+  </si>
+  <si>
+    <t>unitirreno cable</t>
+  </si>
+  <si>
+    <t>lake michigan crossing peninsula and island connection</t>
+  </si>
+  <si>
+    <t>galapagos cable system</t>
+  </si>
+  <si>
+    <t>vaka</t>
+  </si>
+  <si>
+    <t>apollo east and west</t>
+  </si>
+  <si>
+    <t>lake michigan chicago crossing</t>
+  </si>
+  <si>
+    <t>sunoque iii</t>
+  </si>
+  <si>
+    <t>cambodia-hong kong</t>
+  </si>
+  <si>
+    <t>india europe xpress (iex)</t>
+  </si>
+  <si>
+    <t>east micronesia cable system (emcs)</t>
+  </si>
+  <si>
+    <t>coral bridge</t>
+  </si>
+  <si>
+    <t>daito loop</t>
+  </si>
+  <si>
+    <t>norte conectado (infovia 02)</t>
+  </si>
+  <si>
+    <t>norte conectado (infovia 04)</t>
   </si>
   <si>
     <t>echo</t>
   </si>
   <si>
-    <t>-inf</t>
+    <t>nzadi cable system</t>
+  </si>
+  <si>
+    <t>nongsa-changi</t>
+  </si>
+  <si>
+    <t>eastern light sweden-finland ii</t>
+  </si>
+  <si>
+    <t>southeast asia-japan cable 2 (sjc2)</t>
+  </si>
+  <si>
+    <t>firmina</t>
+  </si>
+  <si>
+    <t>raman</t>
+  </si>
+  <si>
+    <t>sea-h2x</t>
+  </si>
+  <si>
+    <t>anjana</t>
   </si>
   <si>
     <t>lake tanganyika</t>
   </si>
   <si>
-    <t>lake michigan crossing peninsula and island connection</t>
-  </si>
-  <si>
-    <t>airraq</t>
-  </si>
-  <si>
-    <t>apollo east and west</t>
-  </si>
-  <si>
-    <t>anjana</t>
-  </si>
-  <si>
-    <t>southeast asia-japan cable 2 (sjc2)</t>
-  </si>
-  <si>
-    <t>sea-h2x</t>
-  </si>
-  <si>
-    <t>eastern light sweden-finland ii</t>
-  </si>
-  <si>
-    <t>nongsa-changi</t>
-  </si>
-  <si>
-    <t>norte conectado (infovia 02)</t>
-  </si>
-  <si>
-    <t>raman</t>
-  </si>
-  <si>
-    <t>lake michigan chicago crossing</t>
-  </si>
-  <si>
-    <t>unitirreno cable</t>
-  </si>
-  <si>
-    <t>nzadi cable system</t>
-  </si>
-  <si>
-    <t>galapagos cable system</t>
-  </si>
-  <si>
-    <t>firmina</t>
-  </si>
-  <si>
-    <t>coral bridge</t>
-  </si>
-  <si>
-    <t>east micronesia cable system (emcs)</t>
-  </si>
-  <si>
-    <t>norte conectado (infovia 04)</t>
-  </si>
-  <si>
-    <t>india europe xpress (iex)</t>
+    <t>mandji fiber optic cable</t>
+  </si>
+  <si>
+    <t>medusa submarine cable system</t>
+  </si>
+  <si>
+    <t>tam-1</t>
+  </si>
+  <si>
+    <t>n0r5ke viking 2</t>
+  </si>
+  <si>
+    <t>bifrost</t>
+  </si>
+  <si>
+    <t>beaufort</t>
   </si>
   <si>
     <t>timor-leste south submarine cable (tlssc)</t>
   </si>
   <si>
-    <t>bifrost</t>
-  </si>
-  <si>
-    <t>mandji fiber optic cable</t>
-  </si>
-  <si>
-    <t>medusa submarine cable system</t>
-  </si>
-  <si>
-    <t>sunoque iii</t>
-  </si>
-  <si>
-    <t>daito loop</t>
-  </si>
-  <si>
-    <t>beaufort</t>
-  </si>
-  <si>
-    <t>cambodia-hong kong</t>
-  </si>
-  <si>
-    <t>tam-1</t>
-  </si>
-  <si>
-    <t>n0r5ke viking 2</t>
+    <t>tpu</t>
   </si>
   <si>
     <t>juno</t>
-  </si>
-  <si>
-    <t>tpu</t>
-  </si>
-  <si>
-    <t>vaka</t>
   </si>
 </sst>
 </file>
@@ -2397,15 +2394,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F665"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A602" workbookViewId="0">
-      <selection activeCell="E613" sqref="E613"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2896,7 +2891,7 @@
         <v>17</v>
       </c>
       <c r="F25">
-        <v>950</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2916,7 +2911,7 @@
         <v>17</v>
       </c>
       <c r="F26">
-        <v>9600</v>
+        <v>950</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3248,6 +3243,9 @@
       <c r="E44">
         <v>25</v>
       </c>
+      <c r="F44">
+        <v>6000</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -3265,9 +3263,6 @@
       <c r="E45">
         <v>25</v>
       </c>
-      <c r="F45">
-        <v>6000</v>
-      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -3346,7 +3341,7 @@
         <v>23</v>
       </c>
       <c r="F49">
-        <v>96000</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3366,7 +3361,7 @@
         <v>23</v>
       </c>
       <c r="F50">
-        <v>25600</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3442,6 +3437,9 @@
       <c r="E54">
         <v>20</v>
       </c>
+      <c r="F54">
+        <v>192000</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -3459,9 +3457,6 @@
       <c r="E55">
         <v>20</v>
       </c>
-      <c r="F55">
-        <v>192000</v>
-      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -3611,7 +3606,7 @@
         <v>15</v>
       </c>
       <c r="F63">
-        <v>8000</v>
+        <v>640</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3631,7 +3626,7 @@
         <v>15</v>
       </c>
       <c r="F64">
-        <v>640</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -4220,9 +4215,6 @@
       <c r="E98">
         <v>30</v>
       </c>
-      <c r="F98">
-        <v>200</v>
-      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -4241,7 +4233,7 @@
         <v>30</v>
       </c>
       <c r="F99">
-        <v>3200</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -4260,6 +4252,9 @@
       <c r="E100">
         <v>30</v>
       </c>
+      <c r="F100">
+        <v>3200</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -4277,9 +4272,6 @@
       <c r="E101">
         <v>30</v>
       </c>
-      <c r="F101">
-        <v>76800</v>
-      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -4298,7 +4290,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>2000</v>
+        <v>76800</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -4317,6 +4309,9 @@
       <c r="E103">
         <v>30</v>
       </c>
+      <c r="F103">
+        <v>3200</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -4335,7 +4330,7 @@
         <v>30</v>
       </c>
       <c r="F104">
-        <v>3200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -4544,6 +4539,9 @@
       <c r="E116">
         <v>28</v>
       </c>
+      <c r="F116">
+        <v>8400</v>
+      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -4595,9 +4593,6 @@
       <c r="E119">
         <v>28</v>
       </c>
-      <c r="F119">
-        <v>8400</v>
-      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -4870,6 +4865,9 @@
       <c r="E135">
         <v>27</v>
       </c>
+      <c r="F135">
+        <v>3600</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
@@ -4887,9 +4885,6 @@
       <c r="E136">
         <v>27</v>
       </c>
-      <c r="F136">
-        <v>3600</v>
-      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -5027,7 +5022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>149</v>
       </c>
@@ -5044,7 +5039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>150</v>
       </c>
@@ -5061,7 +5056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>151</v>
       </c>
@@ -5078,7 +5073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>152</v>
       </c>
@@ -5095,7 +5090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>153</v>
       </c>
@@ -5111,11 +5106,8 @@
       <c r="E149">
         <v>26</v>
       </c>
-      <c r="F149">
-        <v>105600</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>154</v>
       </c>
@@ -5132,7 +5124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>155</v>
       </c>
@@ -5149,7 +5141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>156</v>
       </c>
@@ -5166,7 +5158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>157</v>
       </c>
@@ -5183,7 +5175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>158</v>
       </c>
@@ -5200,7 +5192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>159</v>
       </c>
@@ -5217,7 +5209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>160</v>
       </c>
@@ -5234,7 +5226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>161</v>
       </c>
@@ -5251,7 +5243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>162</v>
       </c>
@@ -5268,7 +5260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>163</v>
       </c>
@@ -5285,7 +5277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>164</v>
       </c>
@@ -5386,6 +5378,9 @@
       <c r="E165">
         <v>26</v>
       </c>
+      <c r="F165">
+        <v>105600</v>
+      </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
@@ -5471,9 +5466,6 @@
       <c r="E170">
         <v>25</v>
       </c>
-      <c r="F170">
-        <v>6100</v>
-      </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
@@ -5508,6 +5500,9 @@
       <c r="E172">
         <v>25</v>
       </c>
+      <c r="F172">
+        <v>20000</v>
+      </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
@@ -5559,6 +5554,9 @@
       <c r="E175">
         <v>25</v>
       </c>
+      <c r="F175">
+        <v>6800</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
@@ -5610,6 +5608,9 @@
       <c r="E178">
         <v>25</v>
       </c>
+      <c r="F178">
+        <v>25000</v>
+      </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
@@ -5627,9 +5628,6 @@
       <c r="E179">
         <v>25</v>
       </c>
-      <c r="F179">
-        <v>12000</v>
-      </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
@@ -5698,9 +5696,6 @@
       <c r="E183">
         <v>25</v>
       </c>
-      <c r="F183">
-        <v>25000</v>
-      </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
@@ -5718,6 +5713,9 @@
       <c r="E184">
         <v>25</v>
       </c>
+      <c r="F184">
+        <v>6100</v>
+      </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
@@ -5735,9 +5733,6 @@
       <c r="E185">
         <v>25</v>
       </c>
-      <c r="F185">
-        <v>6800</v>
-      </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
@@ -5756,7 +5751,7 @@
         <v>25</v>
       </c>
       <c r="F186">
-        <v>20000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -5810,7 +5805,7 @@
         <v>9</v>
       </c>
       <c r="F189">
-        <v>156000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5830,7 +5825,7 @@
         <v>9</v>
       </c>
       <c r="F190">
-        <v>8000</v>
+        <v>156000</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5838,19 +5833,19 @@
         <v>195</v>
       </c>
       <c r="B191">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C191">
-        <v>3.1780538303479462</v>
+        <v>3.19722457733622</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F191">
-        <v>22800</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5870,7 +5865,7 @@
         <v>24</v>
       </c>
       <c r="F192">
-        <v>6000</v>
+        <v>22800</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5889,9 +5884,6 @@
       <c r="E193">
         <v>24</v>
       </c>
-      <c r="F193">
-        <v>29000</v>
-      </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
@@ -5927,7 +5919,7 @@
         <v>24</v>
       </c>
       <c r="F195">
-        <v>14400</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5946,6 +5938,9 @@
       <c r="E196">
         <v>24</v>
       </c>
+      <c r="F196">
+        <v>29000</v>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
@@ -5964,7 +5959,7 @@
         <v>24</v>
       </c>
       <c r="F197">
-        <v>2840</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5983,9 +5978,6 @@
       <c r="E198">
         <v>24</v>
       </c>
-      <c r="F198">
-        <v>12000</v>
-      </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
@@ -6003,6 +5995,9 @@
       <c r="E199">
         <v>24</v>
       </c>
+      <c r="F199">
+        <v>600</v>
+      </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
@@ -6020,6 +6015,9 @@
       <c r="E200">
         <v>24</v>
       </c>
+      <c r="F200">
+        <v>12000</v>
+      </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
@@ -6038,7 +6036,7 @@
         <v>24</v>
       </c>
       <c r="F201">
-        <v>120000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -6074,9 +6072,6 @@
       <c r="E203">
         <v>24</v>
       </c>
-      <c r="F203">
-        <v>600</v>
-      </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
@@ -6095,7 +6090,7 @@
         <v>24</v>
       </c>
       <c r="F204">
-        <v>30000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -6103,16 +6098,19 @@
         <v>209</v>
       </c>
       <c r="B205">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C205">
-        <v>3.1354942159291501</v>
+        <v>3.1780538303479462</v>
       </c>
       <c r="D205">
         <v>0</v>
       </c>
       <c r="E205">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F205">
+        <v>2840</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6132,7 +6130,7 @@
         <v>23</v>
       </c>
       <c r="F206">
-        <v>103200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -6168,9 +6166,6 @@
       <c r="E208">
         <v>23</v>
       </c>
-      <c r="F208">
-        <v>1500</v>
-      </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
@@ -6188,9 +6183,6 @@
       <c r="E209">
         <v>23</v>
       </c>
-      <c r="F209">
-        <v>48000</v>
-      </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
@@ -6209,7 +6201,7 @@
         <v>23</v>
       </c>
       <c r="F210">
-        <v>3200</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6229,7 +6221,7 @@
         <v>23</v>
       </c>
       <c r="F211">
-        <v>40000</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6265,22 +6257,28 @@
       <c r="E213">
         <v>23</v>
       </c>
+      <c r="F213">
+        <v>40000</v>
+      </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>218</v>
       </c>
       <c r="B214">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C214">
-        <v>3.0910424533583161</v>
+        <v>3.1354942159291501</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F214">
+        <v>103200</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -6299,9 +6297,6 @@
       <c r="E215">
         <v>22</v>
       </c>
-      <c r="F215">
-        <v>6400</v>
-      </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
@@ -6336,6 +6331,9 @@
       <c r="E217">
         <v>22</v>
       </c>
+      <c r="F217">
+        <v>12800</v>
+      </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
@@ -6370,28 +6368,25 @@
       <c r="E219">
         <v>22</v>
       </c>
-      <c r="F219">
-        <v>12800</v>
-      </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>224</v>
       </c>
       <c r="B220">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C220">
-        <v>3.0794415416798362</v>
+        <v>3.0910424533583161</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E220">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F220">
-        <v>30000</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -6399,16 +6394,19 @@
         <v>225</v>
       </c>
       <c r="B221">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C221">
-        <v>3.044522437723423</v>
+        <v>3.0794415416798362</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="F221">
+        <v>30000</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -6427,6 +6425,9 @@
       <c r="E222">
         <v>21</v>
       </c>
+      <c r="F222">
+        <v>65600</v>
+      </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
@@ -6461,9 +6462,6 @@
       <c r="E224">
         <v>21</v>
       </c>
-      <c r="F224">
-        <v>11000</v>
-      </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
@@ -6481,6 +6479,9 @@
       <c r="E225">
         <v>21</v>
       </c>
+      <c r="F225">
+        <v>400</v>
+      </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
@@ -6515,9 +6516,6 @@
       <c r="E227">
         <v>21</v>
       </c>
-      <c r="F227">
-        <v>65600</v>
-      </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
@@ -6535,9 +6533,6 @@
       <c r="E228">
         <v>21</v>
       </c>
-      <c r="F228">
-        <v>73500</v>
-      </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
@@ -6555,6 +6550,9 @@
       <c r="E229">
         <v>21</v>
       </c>
+      <c r="F229">
+        <v>11000</v>
+      </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
@@ -6590,7 +6588,7 @@
         <v>21</v>
       </c>
       <c r="F231">
-        <v>400</v>
+        <v>73500</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -6598,16 +6596,16 @@
         <v>236</v>
       </c>
       <c r="B232">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C232">
-        <v>2.9957322735539909</v>
+        <v>3.044522437723423</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -6751,16 +6749,16 @@
         <v>245</v>
       </c>
       <c r="B241">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C241">
-        <v>2.9444389791664398</v>
+        <v>2.9957322735539909</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -6796,6 +6794,9 @@
       <c r="E243">
         <v>19</v>
       </c>
+      <c r="F243">
+        <v>1920</v>
+      </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
@@ -6813,9 +6814,6 @@
       <c r="E244">
         <v>19</v>
       </c>
-      <c r="F244">
-        <v>1920</v>
-      </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
@@ -6833,9 +6831,6 @@
       <c r="E245">
         <v>19</v>
       </c>
-      <c r="F245">
-        <v>2000</v>
-      </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
@@ -6870,25 +6865,25 @@
       <c r="E247">
         <v>19</v>
       </c>
+      <c r="F247">
+        <v>2000</v>
+      </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>252</v>
       </c>
       <c r="B248">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C248">
-        <v>2.890371757896165</v>
+        <v>2.9444389791664398</v>
       </c>
       <c r="D248">
         <v>0</v>
       </c>
       <c r="E248">
-        <v>18</v>
-      </c>
-      <c r="F248">
-        <v>800</v>
+        <v>19</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -6959,7 +6954,7 @@
         <v>18</v>
       </c>
       <c r="F252">
-        <v>7200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -6995,6 +6990,9 @@
       <c r="E254">
         <v>18</v>
       </c>
+      <c r="F254">
+        <v>1280</v>
+      </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
@@ -7012,9 +7010,6 @@
       <c r="E255">
         <v>18</v>
       </c>
-      <c r="F255">
-        <v>2500</v>
-      </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
@@ -7033,7 +7028,7 @@
         <v>18</v>
       </c>
       <c r="F256">
-        <v>1200</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -7052,6 +7047,9 @@
       <c r="E257">
         <v>18</v>
       </c>
+      <c r="F257">
+        <v>7200</v>
+      </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
@@ -7086,9 +7084,6 @@
       <c r="E259">
         <v>18</v>
       </c>
-      <c r="F259">
-        <v>1280</v>
-      </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
@@ -7106,22 +7101,25 @@
       <c r="E260">
         <v>18</v>
       </c>
+      <c r="F260">
+        <v>1200</v>
+      </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>265</v>
       </c>
       <c r="B261">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C261">
-        <v>2.8332133440562162</v>
+        <v>2.890371757896165</v>
       </c>
       <c r="D261">
         <v>0</v>
       </c>
       <c r="E261">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -7141,7 +7139,7 @@
         <v>17</v>
       </c>
       <c r="F262">
-        <v>10600</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -7160,9 +7158,6 @@
       <c r="E263">
         <v>17</v>
       </c>
-      <c r="F263">
-        <v>640</v>
-      </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
@@ -7214,6 +7209,9 @@
       <c r="E266">
         <v>17</v>
       </c>
+      <c r="F266">
+        <v>10600</v>
+      </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
@@ -7231,9 +7229,6 @@
       <c r="E267">
         <v>17</v>
       </c>
-      <c r="F267">
-        <v>1920</v>
-      </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
@@ -7251,9 +7246,6 @@
       <c r="E268">
         <v>17</v>
       </c>
-      <c r="F268">
-        <v>7200</v>
-      </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
@@ -7288,6 +7280,9 @@
       <c r="E270">
         <v>17</v>
       </c>
+      <c r="F270">
+        <v>1920</v>
+      </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
@@ -7323,7 +7318,7 @@
         <v>17</v>
       </c>
       <c r="F272">
-        <v>33600</v>
+        <v>640</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -7342,9 +7337,6 @@
       <c r="E273">
         <v>17</v>
       </c>
-      <c r="F273">
-        <v>60000</v>
-      </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
@@ -7396,6 +7388,9 @@
       <c r="E276">
         <v>17</v>
       </c>
+      <c r="F276">
+        <v>33600</v>
+      </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
@@ -7447,6 +7442,9 @@
       <c r="E279">
         <v>17</v>
       </c>
+      <c r="F279">
+        <v>7200</v>
+      </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
@@ -7464,6 +7462,9 @@
       <c r="E280">
         <v>17</v>
       </c>
+      <c r="F280">
+        <v>60000</v>
+      </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
@@ -7481,9 +7482,6 @@
       <c r="E281">
         <v>17</v>
       </c>
-      <c r="F281">
-        <v>12600</v>
-      </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
@@ -7507,19 +7505,16 @@
         <v>287</v>
       </c>
       <c r="B283">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C283">
-        <v>2.791759469228055</v>
+        <v>2.8332133440562162</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E283">
-        <v>6</v>
-      </c>
-      <c r="F283">
-        <v>8000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -7539,7 +7534,7 @@
         <v>6</v>
       </c>
       <c r="F284">
-        <v>153600</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -7559,7 +7554,7 @@
         <v>6</v>
       </c>
       <c r="F285">
-        <v>36000</v>
+        <v>153600</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -7567,16 +7562,19 @@
         <v>290</v>
       </c>
       <c r="B286">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C286">
-        <v>2.7725887222397811</v>
+        <v>2.791759469228055</v>
       </c>
       <c r="D286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E286">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="F286">
+        <v>36000</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -7595,6 +7593,9 @@
       <c r="E287">
         <v>16</v>
       </c>
+      <c r="F287">
+        <v>11000</v>
+      </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
@@ -7630,7 +7631,7 @@
         <v>16</v>
       </c>
       <c r="F289">
-        <v>1470</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -7649,9 +7650,6 @@
       <c r="E290">
         <v>16</v>
       </c>
-      <c r="F290">
-        <v>19200</v>
-      </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
@@ -7669,6 +7667,9 @@
       <c r="E291">
         <v>16</v>
       </c>
+      <c r="F291">
+        <v>19200</v>
+      </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
@@ -7703,9 +7704,6 @@
       <c r="E293">
         <v>16</v>
       </c>
-      <c r="F293">
-        <v>1280</v>
-      </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
@@ -7723,9 +7721,6 @@
       <c r="E294">
         <v>16</v>
       </c>
-      <c r="F294">
-        <v>11000</v>
-      </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
@@ -7743,9 +7738,6 @@
       <c r="E295">
         <v>16</v>
       </c>
-      <c r="F295">
-        <v>9600</v>
-      </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
@@ -7763,25 +7755,28 @@
       <c r="E296">
         <v>16</v>
       </c>
+      <c r="F296">
+        <v>9600</v>
+      </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>301</v>
       </c>
       <c r="B297">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C297">
-        <v>2.7080502011022101</v>
+        <v>2.7725887222397811</v>
       </c>
       <c r="D297">
         <v>0</v>
       </c>
       <c r="E297">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F297">
-        <v>10000</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -7817,9 +7812,6 @@
       <c r="E299">
         <v>15</v>
       </c>
-      <c r="F299">
-        <v>1280</v>
-      </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
@@ -7837,9 +7829,6 @@
       <c r="E300">
         <v>15</v>
       </c>
-      <c r="F300">
-        <v>960</v>
-      </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
@@ -7891,6 +7880,9 @@
       <c r="E303">
         <v>15</v>
       </c>
+      <c r="F303">
+        <v>10000</v>
+      </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
@@ -7959,25 +7951,28 @@
       <c r="E307">
         <v>15</v>
       </c>
+      <c r="F307">
+        <v>960</v>
+      </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>312</v>
       </c>
       <c r="B308">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C308">
-        <v>2.639057329615258</v>
+        <v>2.7080502011022101</v>
       </c>
       <c r="D308">
         <v>0</v>
       </c>
       <c r="E308">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F308">
-        <v>35200</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -7996,6 +7991,9 @@
       <c r="E309">
         <v>14</v>
       </c>
+      <c r="F309">
+        <v>2500</v>
+      </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
@@ -8013,6 +8011,9 @@
       <c r="E310">
         <v>14</v>
       </c>
+      <c r="F310">
+        <v>9600</v>
+      </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
@@ -8030,9 +8031,6 @@
       <c r="E311">
         <v>14</v>
       </c>
-      <c r="F311">
-        <v>3840</v>
-      </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
@@ -8067,9 +8065,6 @@
       <c r="E313">
         <v>14</v>
       </c>
-      <c r="F313">
-        <v>4000</v>
-      </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
@@ -8104,6 +8099,9 @@
       <c r="E315">
         <v>14</v>
       </c>
+      <c r="F315">
+        <v>35200</v>
+      </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
@@ -8155,6 +8153,9 @@
       <c r="E318">
         <v>14</v>
       </c>
+      <c r="F318">
+        <v>1600</v>
+      </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
@@ -8172,6 +8173,9 @@
       <c r="E319">
         <v>14</v>
       </c>
+      <c r="F319">
+        <v>4000</v>
+      </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
@@ -8189,6 +8193,9 @@
       <c r="E320">
         <v>14</v>
       </c>
+      <c r="F320">
+        <v>3840</v>
+      </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
@@ -8223,9 +8230,6 @@
       <c r="E322">
         <v>14</v>
       </c>
-      <c r="F322">
-        <v>1600</v>
-      </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
@@ -8277,9 +8281,6 @@
       <c r="E325">
         <v>14</v>
       </c>
-      <c r="F325">
-        <v>9600</v>
-      </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
@@ -8314,28 +8315,22 @@
       <c r="E327">
         <v>14</v>
       </c>
-      <c r="F327">
-        <v>2500</v>
-      </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>332</v>
       </c>
       <c r="B328">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C328">
-        <v>2.5649493574615372</v>
+        <v>2.639057329615258</v>
       </c>
       <c r="D328">
         <v>0</v>
       </c>
       <c r="E328">
-        <v>13</v>
-      </c>
-      <c r="F328">
-        <v>2000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -8354,6 +8349,9 @@
       <c r="E329">
         <v>13</v>
       </c>
+      <c r="F329">
+        <v>192000</v>
+      </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
@@ -8371,6 +8369,9 @@
       <c r="E330">
         <v>13</v>
       </c>
+      <c r="F330">
+        <v>42000</v>
+      </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
@@ -8405,6 +8406,9 @@
       <c r="E332">
         <v>13</v>
       </c>
+      <c r="F332">
+        <v>2000</v>
+      </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
@@ -8422,9 +8426,6 @@
       <c r="E333">
         <v>13</v>
       </c>
-      <c r="F333">
-        <v>9600</v>
-      </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
@@ -8459,9 +8460,6 @@
       <c r="E335">
         <v>13</v>
       </c>
-      <c r="F335">
-        <v>3200</v>
-      </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
@@ -8480,7 +8478,7 @@
         <v>13</v>
       </c>
       <c r="F336">
-        <v>42000</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -8519,9 +8517,6 @@
       <c r="E338">
         <v>13</v>
       </c>
-      <c r="F338">
-        <v>1166400</v>
-      </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
@@ -8539,9 +8534,6 @@
       <c r="E339">
         <v>13</v>
       </c>
-      <c r="F339">
-        <v>192000</v>
-      </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
@@ -8594,7 +8586,7 @@
         <v>13</v>
       </c>
       <c r="F342">
-        <v>62400</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -8614,7 +8606,7 @@
         <v>13</v>
       </c>
       <c r="F343">
-        <v>5500</v>
+        <v>62400</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -8633,6 +8625,9 @@
       <c r="E344">
         <v>13</v>
       </c>
+      <c r="F344">
+        <v>12800</v>
+      </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
@@ -8651,7 +8646,7 @@
         <v>13</v>
       </c>
       <c r="F345">
-        <v>12800</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -8659,19 +8654,19 @@
         <v>350</v>
       </c>
       <c r="B346">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C346">
-        <v>2.4849066497879999</v>
+        <v>2.5649493574615372</v>
       </c>
       <c r="D346">
         <v>0</v>
       </c>
       <c r="E346">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F346">
-        <v>5120</v>
+        <v>1166400</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -8690,9 +8685,6 @@
       <c r="E347">
         <v>12</v>
       </c>
-      <c r="F347">
-        <v>800</v>
-      </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
@@ -8710,6 +8702,9 @@
       <c r="E348">
         <v>12</v>
       </c>
+      <c r="F348">
+        <v>800</v>
+      </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
@@ -8727,9 +8722,6 @@
       <c r="E349">
         <v>12</v>
       </c>
-      <c r="F349">
-        <v>120</v>
-      </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
@@ -8747,6 +8739,9 @@
       <c r="E350">
         <v>12</v>
       </c>
+      <c r="F350">
+        <v>72600</v>
+      </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
@@ -8764,9 +8759,6 @@
       <c r="E351">
         <v>12</v>
       </c>
-      <c r="F351">
-        <v>72600</v>
-      </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
@@ -8784,6 +8776,9 @@
       <c r="E352">
         <v>12</v>
       </c>
+      <c r="F352">
+        <v>120</v>
+      </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
@@ -8844,16 +8839,19 @@
         <v>360</v>
       </c>
       <c r="B356">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C356">
-        <v>2.3978952727983711</v>
+        <v>2.4849066497879999</v>
       </c>
       <c r="D356">
         <v>0</v>
       </c>
       <c r="E356">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F356">
+        <v>5120</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -8872,9 +8870,6 @@
       <c r="E357">
         <v>11</v>
       </c>
-      <c r="F357">
-        <v>1920</v>
-      </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
@@ -8943,9 +8938,6 @@
       <c r="E361">
         <v>11</v>
       </c>
-      <c r="F361">
-        <v>60000</v>
-      </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
@@ -8963,6 +8955,9 @@
       <c r="E362">
         <v>11</v>
       </c>
+      <c r="F362">
+        <v>1920</v>
+      </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
@@ -8997,9 +8992,6 @@
       <c r="E364">
         <v>11</v>
       </c>
-      <c r="F364">
-        <v>48000</v>
-      </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
@@ -9017,6 +9009,9 @@
       <c r="E365">
         <v>11</v>
       </c>
+      <c r="F365">
+        <v>60000</v>
+      </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
@@ -9034,9 +9029,6 @@
       <c r="E366">
         <v>11</v>
       </c>
-      <c r="F366">
-        <v>3200</v>
-      </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
@@ -9071,6 +9063,9 @@
       <c r="E368">
         <v>11</v>
       </c>
+      <c r="F368">
+        <v>48000</v>
+      </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
@@ -9106,7 +9101,7 @@
         <v>11</v>
       </c>
       <c r="F370">
-        <v>8000</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -9114,16 +9109,19 @@
         <v>375</v>
       </c>
       <c r="B371">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C371">
-        <v>2.3862943611198908</v>
+        <v>2.3978952727983711</v>
       </c>
       <c r="D371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E371">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="F371">
+        <v>8000</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -9131,16 +9129,16 @@
         <v>376</v>
       </c>
       <c r="B372">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C372">
-        <v>2.3025850929940459</v>
+        <v>2.3862943611198908</v>
       </c>
       <c r="D372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E372">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -9176,9 +9174,6 @@
       <c r="E374">
         <v>10</v>
       </c>
-      <c r="F374">
-        <v>28800</v>
-      </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
@@ -9214,7 +9209,7 @@
         <v>10</v>
       </c>
       <c r="F376">
-        <v>104000</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -9234,7 +9229,7 @@
         <v>10</v>
       </c>
       <c r="F377">
-        <v>12800</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -9293,22 +9288,25 @@
       <c r="E380">
         <v>10</v>
       </c>
+      <c r="F380">
+        <v>104000</v>
+      </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>385</v>
       </c>
       <c r="B381">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C381">
-        <v>2.19722457733622</v>
+        <v>2.3025850929940459</v>
       </c>
       <c r="D381">
         <v>0</v>
       </c>
       <c r="E381">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -9344,9 +9342,6 @@
       <c r="E383">
         <v>9</v>
       </c>
-      <c r="F383">
-        <v>90000</v>
-      </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
@@ -9364,9 +9359,6 @@
       <c r="E384">
         <v>9</v>
       </c>
-      <c r="F384">
-        <v>130000</v>
-      </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
@@ -9401,6 +9393,9 @@
       <c r="E386">
         <v>9</v>
       </c>
+      <c r="F386">
+        <v>3200</v>
+      </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
@@ -9418,6 +9413,9 @@
       <c r="E387">
         <v>9</v>
       </c>
+      <c r="F387">
+        <v>130000</v>
+      </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
@@ -9435,9 +9433,6 @@
       <c r="E388">
         <v>9</v>
       </c>
-      <c r="F388">
-        <v>16000</v>
-      </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
@@ -9455,6 +9450,9 @@
       <c r="E389">
         <v>9</v>
       </c>
+      <c r="F389">
+        <v>90000</v>
+      </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
@@ -9506,9 +9504,6 @@
       <c r="E392">
         <v>9</v>
       </c>
-      <c r="F392">
-        <v>3200</v>
-      </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
@@ -9583,9 +9578,6 @@
       <c r="E396">
         <v>8</v>
       </c>
-      <c r="F396">
-        <v>8000</v>
-      </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
@@ -9603,9 +9595,6 @@
       <c r="E397">
         <v>8</v>
       </c>
-      <c r="F397">
-        <v>20000</v>
-      </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
@@ -9623,6 +9612,9 @@
       <c r="E398">
         <v>8</v>
       </c>
+      <c r="F398">
+        <v>4000</v>
+      </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
@@ -9640,6 +9632,9 @@
       <c r="E399">
         <v>8</v>
       </c>
+      <c r="F399">
+        <v>64000</v>
+      </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
@@ -9658,7 +9653,7 @@
         <v>8</v>
       </c>
       <c r="F400">
-        <v>4000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
@@ -9678,7 +9673,7 @@
         <v>8</v>
       </c>
       <c r="F401">
-        <v>64000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
@@ -9697,9 +9692,6 @@
       <c r="E402">
         <v>8</v>
       </c>
-      <c r="F402">
-        <v>18000</v>
-      </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
@@ -9718,7 +9710,7 @@
         <v>8</v>
       </c>
       <c r="F403">
-        <v>12800</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
@@ -9738,7 +9730,7 @@
         <v>8</v>
       </c>
       <c r="F404">
-        <v>30000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
@@ -9758,7 +9750,7 @@
         <v>8</v>
       </c>
       <c r="F405">
-        <v>32000</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
@@ -9777,6 +9769,9 @@
       <c r="E406">
         <v>8</v>
       </c>
+      <c r="F406">
+        <v>18000</v>
+      </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
@@ -9795,7 +9790,7 @@
         <v>8</v>
       </c>
       <c r="F407">
-        <v>30000</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
@@ -9815,7 +9810,7 @@
         <v>8</v>
       </c>
       <c r="F408">
-        <v>9600</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
@@ -9834,6 +9829,9 @@
       <c r="E409">
         <v>7</v>
       </c>
+      <c r="F409">
+        <v>32000</v>
+      </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
@@ -9888,6 +9886,9 @@
       <c r="E412">
         <v>7</v>
       </c>
+      <c r="F412">
+        <v>35200</v>
+      </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
@@ -9906,7 +9907,7 @@
         <v>7</v>
       </c>
       <c r="F413">
-        <v>32000</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
@@ -9925,6 +9926,9 @@
       <c r="E414">
         <v>7</v>
       </c>
+      <c r="F414">
+        <v>115200</v>
+      </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
@@ -9942,9 +9946,6 @@
       <c r="E415">
         <v>7</v>
       </c>
-      <c r="F415">
-        <v>119600</v>
-      </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
@@ -9962,9 +9963,6 @@
       <c r="E416">
         <v>7</v>
       </c>
-      <c r="F416">
-        <v>115200</v>
-      </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
@@ -9982,6 +9980,9 @@
       <c r="E417">
         <v>7</v>
       </c>
+      <c r="F417">
+        <v>8000</v>
+      </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
@@ -9999,6 +10000,9 @@
       <c r="E418">
         <v>7</v>
       </c>
+      <c r="F418">
+        <v>67000</v>
+      </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
@@ -10016,9 +10020,6 @@
       <c r="E419">
         <v>7</v>
       </c>
-      <c r="F419">
-        <v>13500</v>
-      </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
@@ -10037,7 +10038,7 @@
         <v>7</v>
       </c>
       <c r="F420">
-        <v>200000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
@@ -10057,7 +10058,7 @@
         <v>7</v>
       </c>
       <c r="F421">
-        <v>160000</v>
+        <v>119600</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -10097,7 +10098,7 @@
         <v>7</v>
       </c>
       <c r="F423">
-        <v>8000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
@@ -10116,9 +10117,6 @@
       <c r="E424">
         <v>7</v>
       </c>
-      <c r="F424">
-        <v>1200</v>
-      </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
@@ -10137,7 +10135,7 @@
         <v>7</v>
       </c>
       <c r="F425">
-        <v>67000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -10173,9 +10171,6 @@
       <c r="E427">
         <v>7</v>
       </c>
-      <c r="F427">
-        <v>35200</v>
-      </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
@@ -10193,9 +10188,6 @@
       <c r="E428">
         <v>6</v>
       </c>
-      <c r="F428">
-        <v>2400</v>
-      </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
@@ -10214,7 +10206,7 @@
         <v>6</v>
       </c>
       <c r="F429">
-        <v>307200</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
@@ -10233,6 +10225,9 @@
       <c r="E430">
         <v>6</v>
       </c>
+      <c r="F430">
+        <v>20000</v>
+      </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
@@ -10285,7 +10280,7 @@
         <v>6</v>
       </c>
       <c r="F433">
-        <v>4400</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
@@ -10304,9 +10299,6 @@
       <c r="E434">
         <v>6</v>
       </c>
-      <c r="F434">
-        <v>20000</v>
-      </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
@@ -10341,6 +10333,9 @@
       <c r="E436">
         <v>6</v>
       </c>
+      <c r="F436">
+        <v>16000</v>
+      </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
@@ -10359,7 +10354,7 @@
         <v>6</v>
       </c>
       <c r="F437">
-        <v>192000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -10379,7 +10374,7 @@
         <v>6</v>
       </c>
       <c r="F438">
-        <v>4000</v>
+        <v>307200</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
@@ -10398,6 +10393,9 @@
       <c r="E439">
         <v>6</v>
       </c>
+      <c r="F439">
+        <v>16800</v>
+      </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
@@ -10467,7 +10465,7 @@
         <v>6</v>
       </c>
       <c r="F443">
-        <v>115200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
@@ -10487,7 +10485,7 @@
         <v>6</v>
       </c>
       <c r="F444">
-        <v>2476800</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
@@ -10506,9 +10504,6 @@
       <c r="E445">
         <v>6</v>
       </c>
-      <c r="F445">
-        <v>36000</v>
-      </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
@@ -10526,9 +10521,6 @@
       <c r="E446">
         <v>6</v>
       </c>
-      <c r="F446">
-        <v>16000</v>
-      </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
@@ -10547,7 +10539,7 @@
         <v>6</v>
       </c>
       <c r="F447">
-        <v>16800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
@@ -10617,6 +10609,9 @@
       <c r="E451">
         <v>6</v>
       </c>
+      <c r="F451">
+        <v>115200</v>
+      </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
@@ -10635,7 +10630,7 @@
         <v>6</v>
       </c>
       <c r="F452">
-        <v>1200</v>
+        <v>2476800</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
@@ -10672,7 +10667,7 @@
         <v>6</v>
       </c>
       <c r="F454">
-        <v>2400</v>
+        <v>192000</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -10692,7 +10687,7 @@
         <v>2</v>
       </c>
       <c r="F455">
-        <v>40000</v>
+        <v>368000</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
@@ -10712,7 +10707,7 @@
         <v>2</v>
       </c>
       <c r="F456">
-        <v>368000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -10732,7 +10727,7 @@
         <v>5</v>
       </c>
       <c r="F457">
-        <v>115200</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -10751,6 +10746,9 @@
       <c r="E458">
         <v>5</v>
       </c>
+      <c r="F458">
+        <v>40000</v>
+      </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
@@ -10768,9 +10766,6 @@
       <c r="E459">
         <v>5</v>
       </c>
-      <c r="F459">
-        <v>160000</v>
-      </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
@@ -10789,7 +10784,7 @@
         <v>5</v>
       </c>
       <c r="F460">
-        <v>80000</v>
+        <v>460800</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
@@ -10808,6 +10803,9 @@
       <c r="E461">
         <v>5</v>
       </c>
+      <c r="F461">
+        <v>75000</v>
+      </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
@@ -10825,9 +10823,6 @@
       <c r="E462">
         <v>5</v>
       </c>
-      <c r="F462">
-        <v>16000</v>
-      </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
@@ -10846,7 +10841,7 @@
         <v>5</v>
       </c>
       <c r="F463">
-        <v>57600</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
@@ -10866,7 +10861,7 @@
         <v>5</v>
       </c>
       <c r="F464">
-        <v>40000</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
@@ -10885,6 +10880,9 @@
       <c r="E465">
         <v>5</v>
       </c>
+      <c r="F465">
+        <v>36000</v>
+      </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
@@ -10902,9 +10900,6 @@
       <c r="E466">
         <v>5</v>
       </c>
-      <c r="F466">
-        <v>1920000</v>
-      </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
@@ -10940,7 +10935,7 @@
         <v>5</v>
       </c>
       <c r="F468">
-        <v>460800</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
@@ -10959,6 +10954,9 @@
       <c r="E469">
         <v>5</v>
       </c>
+      <c r="F469">
+        <v>80000</v>
+      </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
@@ -10977,7 +10975,7 @@
         <v>5</v>
       </c>
       <c r="F470">
-        <v>32000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -11013,9 +11011,6 @@
       <c r="E472">
         <v>5</v>
       </c>
-      <c r="F472">
-        <v>72000</v>
-      </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
@@ -11050,6 +11045,9 @@
       <c r="E474">
         <v>5</v>
       </c>
+      <c r="F474">
+        <v>1920000</v>
+      </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
@@ -11068,7 +11066,7 @@
         <v>5</v>
       </c>
       <c r="F475">
-        <v>36000</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
@@ -11088,7 +11086,7 @@
         <v>5</v>
       </c>
       <c r="F476">
-        <v>30000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
@@ -11108,7 +11106,7 @@
         <v>5</v>
       </c>
       <c r="F477">
-        <v>75000</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
@@ -11127,9 +11125,6 @@
       <c r="E478">
         <v>5</v>
       </c>
-      <c r="F478">
-        <v>9600</v>
-      </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
@@ -11147,6 +11142,9 @@
       <c r="E479">
         <v>4</v>
       </c>
+      <c r="F479">
+        <v>307200</v>
+      </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
@@ -11164,6 +11162,9 @@
       <c r="E480">
         <v>4</v>
       </c>
+      <c r="F480">
+        <v>4800</v>
+      </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
@@ -11181,9 +11182,6 @@
       <c r="E481">
         <v>4</v>
       </c>
-      <c r="F481">
-        <v>250000</v>
-      </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
@@ -11201,9 +11199,6 @@
       <c r="E482">
         <v>4</v>
       </c>
-      <c r="F482">
-        <v>307200</v>
-      </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
@@ -11242,7 +11237,7 @@
         <v>4</v>
       </c>
       <c r="F484">
-        <v>100000</v>
+        <v>132000</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
@@ -11261,6 +11256,9 @@
       <c r="E485">
         <v>4</v>
       </c>
+      <c r="F485">
+        <v>216000</v>
+      </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
@@ -11279,7 +11277,7 @@
         <v>4</v>
       </c>
       <c r="F486">
-        <v>216000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
@@ -11299,7 +11297,7 @@
         <v>4</v>
       </c>
       <c r="F487">
-        <v>4800</v>
+        <v>2476800</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
@@ -11319,7 +11317,7 @@
         <v>4</v>
       </c>
       <c r="F488">
-        <v>307200</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
@@ -11339,7 +11337,7 @@
         <v>4</v>
       </c>
       <c r="F489">
-        <v>132000</v>
+        <v>307200</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
@@ -11359,7 +11357,7 @@
         <v>4</v>
       </c>
       <c r="F490">
-        <v>24000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
@@ -11379,7 +11377,7 @@
         <v>4</v>
       </c>
       <c r="F491">
-        <v>2476800</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
@@ -11399,7 +11397,7 @@
         <v>4</v>
       </c>
       <c r="F492">
-        <v>48000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
@@ -11435,9 +11433,6 @@
       <c r="E494">
         <v>4</v>
       </c>
-      <c r="F494">
-        <v>108000</v>
-      </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
@@ -11475,6 +11470,9 @@
       <c r="E496">
         <v>3</v>
       </c>
+      <c r="F496">
+        <v>20000</v>
+      </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
@@ -11526,9 +11524,6 @@
       <c r="E499">
         <v>3</v>
       </c>
-      <c r="F499">
-        <v>9600</v>
-      </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
@@ -11580,6 +11575,9 @@
       <c r="E502">
         <v>3</v>
       </c>
+      <c r="F502">
+        <v>90000</v>
+      </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
@@ -11614,9 +11612,6 @@
       <c r="E504">
         <v>3</v>
       </c>
-      <c r="F504">
-        <v>90000</v>
-      </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
@@ -11654,6 +11649,9 @@
       <c r="E506">
         <v>3</v>
       </c>
+      <c r="F506">
+        <v>24000</v>
+      </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
@@ -11672,7 +11670,7 @@
         <v>3</v>
       </c>
       <c r="F507">
-        <v>20000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
@@ -11692,7 +11690,7 @@
         <v>3</v>
       </c>
       <c r="F508">
-        <v>352000</v>
+        <v>5200000</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
@@ -11711,9 +11709,6 @@
       <c r="E509">
         <v>3</v>
       </c>
-      <c r="F509">
-        <v>104000</v>
-      </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
@@ -11731,9 +11726,6 @@
       <c r="E510">
         <v>3</v>
       </c>
-      <c r="F510">
-        <v>8000</v>
-      </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
@@ -11768,6 +11760,9 @@
       <c r="E512">
         <v>3</v>
       </c>
+      <c r="F512">
+        <v>9600</v>
+      </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
@@ -11785,6 +11780,9 @@
       <c r="E513">
         <v>3</v>
       </c>
+      <c r="F513">
+        <v>352000</v>
+      </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
@@ -11803,7 +11801,7 @@
         <v>3</v>
       </c>
       <c r="F514">
-        <v>5200000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
@@ -11822,9 +11820,6 @@
       <c r="E515">
         <v>3</v>
       </c>
-      <c r="F515">
-        <v>24000</v>
-      </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
@@ -11860,7 +11855,7 @@
         <v>3</v>
       </c>
       <c r="F517">
-        <v>160000</v>
+        <v>104000</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
@@ -11981,6 +11976,9 @@
       <c r="E524">
         <v>2</v>
       </c>
+      <c r="F524">
+        <v>16000</v>
+      </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
@@ -11998,6 +11996,9 @@
       <c r="E525">
         <v>2</v>
       </c>
+      <c r="F525">
+        <v>144000</v>
+      </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
@@ -12033,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="F527">
-        <v>240000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
@@ -12052,9 +12053,6 @@
       <c r="E528">
         <v>2</v>
       </c>
-      <c r="F528">
-        <v>20000</v>
-      </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
@@ -12109,9 +12107,6 @@
       <c r="E531">
         <v>2</v>
       </c>
-      <c r="F531">
-        <v>360000</v>
-      </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
@@ -12146,9 +12141,6 @@
       <c r="E533">
         <v>2</v>
       </c>
-      <c r="F533">
-        <v>145000</v>
-      </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
@@ -12166,6 +12158,9 @@
       <c r="E534">
         <v>2</v>
       </c>
+      <c r="F534">
+        <v>288000</v>
+      </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
@@ -12183,9 +12178,6 @@
       <c r="E535">
         <v>2</v>
       </c>
-      <c r="F535">
-        <v>1776000</v>
-      </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
@@ -12203,9 +12195,6 @@
       <c r="E536">
         <v>2</v>
       </c>
-      <c r="F536">
-        <v>144000</v>
-      </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
@@ -12223,9 +12212,6 @@
       <c r="E537">
         <v>2</v>
       </c>
-      <c r="F537">
-        <v>60000</v>
-      </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
@@ -12243,6 +12229,9 @@
       <c r="E538">
         <v>2</v>
       </c>
+      <c r="F538">
+        <v>145000</v>
+      </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
@@ -12277,6 +12266,9 @@
       <c r="E540">
         <v>2</v>
       </c>
+      <c r="F540">
+        <v>1776000</v>
+      </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
@@ -12295,7 +12287,7 @@
         <v>2</v>
       </c>
       <c r="F541">
-        <v>288000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
@@ -12348,9 +12340,6 @@
       <c r="E544">
         <v>2</v>
       </c>
-      <c r="F544">
-        <v>16000</v>
-      </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
@@ -12402,6 +12391,9 @@
       <c r="E547">
         <v>2</v>
       </c>
+      <c r="F547">
+        <v>240000</v>
+      </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
@@ -12436,6 +12428,9 @@
       <c r="E549">
         <v>2</v>
       </c>
+      <c r="F549">
+        <v>20000</v>
+      </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
@@ -12451,10 +12446,10 @@
         <v>0</v>
       </c>
       <c r="E550">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F550">
-        <v>384000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
@@ -12468,7 +12463,13 @@
         <v>0</v>
       </c>
       <c r="D551">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E551">
+        <v>-1</v>
+      </c>
+      <c r="F551">
+        <v>384000</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
@@ -12485,7 +12486,10 @@
         <v>0</v>
       </c>
       <c r="E552">
-        <v>-2</v>
+        <v>1</v>
+      </c>
+      <c r="F552">
+        <v>240000</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
@@ -12502,7 +12506,7 @@
         <v>0</v>
       </c>
       <c r="E553">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
@@ -12519,7 +12523,7 @@
         <v>0</v>
       </c>
       <c r="E554">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
@@ -12533,7 +12537,13 @@
         <v>0</v>
       </c>
       <c r="D555">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E555">
+        <v>-2</v>
+      </c>
+      <c r="F555">
+        <v>40000</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
@@ -12552,6 +12562,9 @@
       <c r="E556">
         <v>-1</v>
       </c>
+      <c r="F556">
+        <v>4300000</v>
+      </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
@@ -12567,7 +12580,7 @@
         <v>0</v>
       </c>
       <c r="E557">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
@@ -12581,7 +12594,13 @@
         <v>0</v>
       </c>
       <c r="D558">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E558">
+        <v>-1</v>
+      </c>
+      <c r="F558">
+        <v>150000</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
@@ -12595,13 +12614,7 @@
         <v>0</v>
       </c>
       <c r="D559">
-        <v>0</v>
-      </c>
-      <c r="E559">
-        <v>-1</v>
-      </c>
-      <c r="F559">
-        <v>126000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
@@ -12618,7 +12631,7 @@
         <v>0</v>
       </c>
       <c r="E560">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
@@ -12635,10 +12648,7 @@
         <v>0</v>
       </c>
       <c r="E561">
-        <v>-2</v>
-      </c>
-      <c r="F561">
-        <v>76800</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
@@ -12654,9 +12664,6 @@
       <c r="D562">
         <v>0</v>
       </c>
-      <c r="E562">
-        <v>-2</v>
-      </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
@@ -12671,12 +12678,6 @@
       <c r="D563">
         <v>0</v>
       </c>
-      <c r="E563">
-        <v>-1</v>
-      </c>
-      <c r="F563">
-        <v>259200</v>
-      </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
@@ -12692,10 +12693,7 @@
         <v>0</v>
       </c>
       <c r="E564">
-        <v>-1</v>
-      </c>
-      <c r="F564">
-        <v>400000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
@@ -12726,7 +12724,7 @@
         <v>0</v>
       </c>
       <c r="E566">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
@@ -12743,7 +12741,7 @@
         <v>0</v>
       </c>
       <c r="E567">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
@@ -12760,7 +12758,10 @@
         <v>0</v>
       </c>
       <c r="E568">
-        <v>-1</v>
+        <v>-2</v>
+      </c>
+      <c r="F568">
+        <v>76800</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
@@ -12776,6 +12777,12 @@
       <c r="D569">
         <v>0</v>
       </c>
+      <c r="E569">
+        <v>-2</v>
+      </c>
+      <c r="F569">
+        <v>320000</v>
+      </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
@@ -12788,7 +12795,13 @@
         <v>0</v>
       </c>
       <c r="D570">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E570">
+        <v>-2</v>
+      </c>
+      <c r="F570">
+        <v>320000</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
@@ -12804,11 +12817,11 @@
       <c r="D571">
         <v>0</v>
       </c>
+      <c r="E571">
+        <v>1</v>
+      </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
-        <v>576</v>
-      </c>
       <c r="B572">
         <v>89</v>
       </c>
@@ -12818,13 +12831,10 @@
       <c r="D572">
         <v>0</v>
       </c>
-      <c r="E572">
-        <v>1</v>
-      </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B573">
         <v>89</v>
@@ -12833,15 +12843,12 @@
         <v>0</v>
       </c>
       <c r="D573">
-        <v>0</v>
-      </c>
-      <c r="E573">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B574">
         <v>89</v>
@@ -12853,15 +12860,15 @@
         <v>0</v>
       </c>
       <c r="E574">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F574">
-        <v>216000</v>
+        <v>259200</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B575">
         <v>89</v>
@@ -12872,10 +12879,13 @@
       <c r="D575">
         <v>0</v>
       </c>
+      <c r="E575">
+        <v>1</v>
+      </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B576">
         <v>89</v>
@@ -12887,15 +12897,12 @@
         <v>0</v>
       </c>
       <c r="E576">
-        <v>-1</v>
-      </c>
-      <c r="F576">
-        <v>200000</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B577">
         <v>89</v>
@@ -12910,12 +12917,12 @@
         <v>-1</v>
       </c>
       <c r="F577">
-        <v>432000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B578">
         <v>89</v>
@@ -12929,7 +12936,7 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B579">
         <v>89</v>
@@ -12946,7 +12953,7 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B580">
         <v>89</v>
@@ -12958,12 +12965,12 @@
         <v>0</v>
       </c>
       <c r="E580">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B581">
         <v>89</v>
@@ -12975,12 +12982,15 @@
         <v>0</v>
       </c>
       <c r="E581">
-        <v>-2</v>
+        <v>1</v>
+      </c>
+      <c r="F581">
+        <v>96000</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B582">
         <v>89</v>
@@ -12989,12 +12999,15 @@
         <v>0</v>
       </c>
       <c r="D582">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E582">
+        <v>-3</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B583">
         <v>89</v>
@@ -13006,12 +13019,15 @@
         <v>0</v>
       </c>
       <c r="E583">
-        <v>-2</v>
+        <v>-1</v>
+      </c>
+      <c r="F583">
+        <v>256000</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B584">
         <v>89</v>
@@ -13023,12 +13039,12 @@
         <v>0</v>
       </c>
       <c r="E584">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B585">
         <v>89</v>
@@ -13037,18 +13053,12 @@
         <v>0</v>
       </c>
       <c r="D585">
-        <v>0</v>
-      </c>
-      <c r="E585">
         <v>1</v>
-      </c>
-      <c r="F585">
-        <v>180000</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B586">
         <v>89</v>
@@ -13060,12 +13070,12 @@
         <v>0</v>
       </c>
       <c r="E586">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B587">
         <v>89</v>
@@ -13074,18 +13084,12 @@
         <v>0</v>
       </c>
       <c r="D587">
-        <v>0</v>
-      </c>
-      <c r="E587">
-        <v>1</v>
-      </c>
-      <c r="F587">
-        <v>230400</v>
+        <v>10</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B588">
         <v>89</v>
@@ -13102,7 +13106,7 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B589">
         <v>89</v>
@@ -13114,12 +13118,12 @@
         <v>0</v>
       </c>
       <c r="E589">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B590">
         <v>89</v>
@@ -13128,15 +13132,12 @@
         <v>0</v>
       </c>
       <c r="D590">
-        <v>0</v>
-      </c>
-      <c r="E590">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B591">
         <v>89</v>
@@ -13145,15 +13146,12 @@
         <v>0</v>
       </c>
       <c r="D591">
-        <v>0</v>
-      </c>
-      <c r="E591">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B592">
         <v>89</v>
@@ -13162,18 +13160,12 @@
         <v>0</v>
       </c>
       <c r="D592">
-        <v>0</v>
-      </c>
-      <c r="E592">
-        <v>-1</v>
-      </c>
-      <c r="F592">
-        <v>256000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B593">
         <v>89</v>
@@ -13185,12 +13177,15 @@
         <v>0</v>
       </c>
       <c r="E593">
-        <v>-2</v>
+        <v>-1</v>
+      </c>
+      <c r="F593">
+        <v>400000</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B594">
         <v>89</v>
@@ -13205,12 +13200,12 @@
         <v>-1</v>
       </c>
       <c r="F594">
-        <v>480000</v>
+        <v>126000</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B595">
         <v>89</v>
@@ -13227,7 +13222,7 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B596">
         <v>89</v>
@@ -13239,15 +13234,12 @@
         <v>0</v>
       </c>
       <c r="E596">
-        <v>-1</v>
-      </c>
-      <c r="F596">
-        <v>600000</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B597">
         <v>89</v>
@@ -13259,15 +13251,12 @@
         <v>0</v>
       </c>
       <c r="E597">
-        <v>-2</v>
-      </c>
-      <c r="F597">
-        <v>304000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B598">
         <v>89</v>
@@ -13276,15 +13265,12 @@
         <v>0</v>
       </c>
       <c r="D598">
-        <v>0</v>
-      </c>
-      <c r="E598">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B599">
         <v>89</v>
@@ -13293,12 +13279,12 @@
         <v>0</v>
       </c>
       <c r="D599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B600">
         <v>89</v>
@@ -13313,12 +13299,12 @@
         <v>-1</v>
       </c>
       <c r="F600">
-        <v>272000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B601">
         <v>89</v>
@@ -13330,15 +13316,15 @@
         <v>0</v>
       </c>
       <c r="E601">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F601">
-        <v>380000</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B602">
         <v>89</v>
@@ -13350,15 +13336,12 @@
         <v>0</v>
       </c>
       <c r="E602">
-        <v>1</v>
-      </c>
-      <c r="F602">
-        <v>160000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B603">
         <v>89</v>
@@ -13373,12 +13356,12 @@
         <v>-1</v>
       </c>
       <c r="F603">
-        <v>144000</v>
+        <v>432000</v>
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B604">
         <v>89</v>
@@ -13389,10 +13372,13 @@
       <c r="D604">
         <v>0</v>
       </c>
+      <c r="E604">
+        <v>-3</v>
+      </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B605">
         <v>89</v>
@@ -13404,15 +13390,12 @@
         <v>0</v>
       </c>
       <c r="E605">
-        <v>-3</v>
-      </c>
-      <c r="F605">
-        <v>256000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B606">
         <v>89</v>
@@ -13421,18 +13404,12 @@
         <v>0</v>
       </c>
       <c r="D606">
-        <v>0</v>
-      </c>
-      <c r="E606">
-        <v>-1</v>
-      </c>
-      <c r="F606">
-        <v>4300000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B607">
         <v>89</v>
@@ -13441,12 +13418,15 @@
         <v>0</v>
       </c>
       <c r="D607">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E607">
+        <v>-2</v>
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B608">
         <v>89</v>
@@ -13455,12 +13435,18 @@
         <v>0</v>
       </c>
       <c r="D608">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E608">
+        <v>-1</v>
+      </c>
+      <c r="F608">
+        <v>144000</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B609">
         <v>89</v>
@@ -13472,15 +13458,15 @@
         <v>0</v>
       </c>
       <c r="E609">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F609">
-        <v>320000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B610">
         <v>89</v>
@@ -13492,15 +13478,15 @@
         <v>0</v>
       </c>
       <c r="E610">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F610">
-        <v>320000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B611">
         <v>89</v>
@@ -13512,12 +13498,12 @@
         <v>0</v>
       </c>
       <c r="E611">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B612">
         <v>89</v>
@@ -13528,13 +13514,10 @@
       <c r="D612">
         <v>0</v>
       </c>
-      <c r="E612">
-        <v>1</v>
-      </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B613">
         <v>89</v>
@@ -13543,12 +13526,15 @@
         <v>0</v>
       </c>
       <c r="D613">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E613">
+        <v>-2</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B614">
         <v>89</v>
@@ -13557,18 +13543,12 @@
         <v>0</v>
       </c>
       <c r="D614">
-        <v>0</v>
-      </c>
-      <c r="E614">
-        <v>1</v>
-      </c>
-      <c r="F614">
-        <v>240000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B615">
         <v>89</v>
@@ -13580,15 +13560,15 @@
         <v>0</v>
       </c>
       <c r="E615">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F615">
-        <v>480000</v>
+        <v>304000</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B616">
         <v>89</v>
@@ -13600,15 +13580,15 @@
         <v>0</v>
       </c>
       <c r="E616">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F616">
-        <v>200000</v>
+        <v>272000</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B617">
         <v>89</v>
@@ -13617,15 +13597,12 @@
         <v>0</v>
       </c>
       <c r="D617">
-        <v>0</v>
-      </c>
-      <c r="E617">
         <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B618">
         <v>89</v>
@@ -13639,13 +13616,10 @@
       <c r="E618">
         <v>-1</v>
       </c>
-      <c r="F618">
-        <v>150000</v>
-      </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B619">
         <v>89</v>
@@ -13657,15 +13631,12 @@
         <v>0</v>
       </c>
       <c r="E619">
-        <v>1</v>
-      </c>
-      <c r="F619">
-        <v>3052000</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B620">
         <v>89</v>
@@ -13674,12 +13645,18 @@
         <v>0</v>
       </c>
       <c r="D620">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E620">
+        <v>1</v>
+      </c>
+      <c r="F620">
+        <v>3052000</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B621">
         <v>89</v>
@@ -13691,12 +13668,15 @@
         <v>0</v>
       </c>
       <c r="E621">
-        <v>-1</v>
+        <v>-3</v>
+      </c>
+      <c r="F621">
+        <v>256000</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B622">
         <v>89</v>
@@ -13710,10 +13690,13 @@
       <c r="E622">
         <v>1</v>
       </c>
+      <c r="F622">
+        <v>230400</v>
+      </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B623">
         <v>89</v>
@@ -13725,15 +13708,15 @@
         <v>0</v>
       </c>
       <c r="E623">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F623">
-        <v>720000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B624">
         <v>89</v>
@@ -13742,12 +13725,15 @@
         <v>0</v>
       </c>
       <c r="D624">
+        <v>0</v>
+      </c>
+      <c r="E624">
         <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B625">
         <v>89</v>
@@ -13761,13 +13747,10 @@
       <c r="E625">
         <v>-2</v>
       </c>
-      <c r="F625">
-        <v>250000</v>
-      </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B626">
         <v>89</v>
@@ -13779,12 +13762,12 @@
         <v>0</v>
       </c>
       <c r="E626">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B627">
         <v>89</v>
@@ -13793,12 +13776,18 @@
         <v>0</v>
       </c>
       <c r="D627">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E627">
+        <v>-1</v>
+      </c>
+      <c r="F627">
+        <v>600000</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B628">
         <v>89</v>
@@ -13810,15 +13799,15 @@
         <v>0</v>
       </c>
       <c r="E628">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F628">
-        <v>400000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B629">
         <v>89</v>
@@ -13830,15 +13819,15 @@
         <v>0</v>
       </c>
       <c r="E629">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F629">
-        <v>96000</v>
+        <v>720000</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B630">
         <v>89</v>
@@ -13852,10 +13841,13 @@
       <c r="E630">
         <v>-1</v>
       </c>
+      <c r="F630">
+        <v>400000</v>
+      </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B631">
         <v>89</v>
@@ -13867,21 +13859,21 @@
         <v>0</v>
       </c>
       <c r="E631">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F631">
-        <v>40000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B632">
         <v>90</v>
       </c>
       <c r="C632" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D632">
         <v>0</v>
@@ -13890,35 +13882,38 @@
         <v>0</v>
       </c>
       <c r="F632">
-        <v>144000</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B633">
         <v>90</v>
       </c>
       <c r="C633" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D633">
         <v>0</v>
       </c>
       <c r="E633">
         <v>0</v>
+      </c>
+      <c r="F633">
+        <v>80000</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B634">
         <v>90</v>
       </c>
       <c r="C634" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D634">
         <v>0</v>
@@ -13929,13 +13924,13 @@
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B635">
         <v>90</v>
       </c>
       <c r="C635" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D635">
         <v>0</v>
@@ -13944,18 +13939,18 @@
         <v>0</v>
       </c>
       <c r="F635">
-        <v>38400</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B636">
         <v>90</v>
       </c>
       <c r="C636" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D636">
         <v>0</v>
@@ -13966,73 +13961,64 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B637">
         <v>90</v>
       </c>
       <c r="C637" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D637">
         <v>0</v>
       </c>
       <c r="E637">
         <v>0</v>
-      </c>
-      <c r="F637">
-        <v>480000</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B638">
         <v>90</v>
       </c>
       <c r="C638" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D638">
         <v>0</v>
       </c>
       <c r="E638">
         <v>0</v>
-      </c>
-      <c r="F638">
-        <v>136500</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B639">
         <v>90</v>
       </c>
       <c r="C639" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D639">
         <v>0</v>
       </c>
       <c r="E639">
         <v>0</v>
-      </c>
-      <c r="F639">
-        <v>160000</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B640">
         <v>90</v>
       </c>
       <c r="C640" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D640">
         <v>0</v>
@@ -14043,30 +14029,33 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B641">
         <v>90</v>
       </c>
       <c r="C641" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D641">
         <v>0</v>
       </c>
       <c r="E641">
         <v>0</v>
+      </c>
+      <c r="F641">
+        <v>210000</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B642">
         <v>90</v>
       </c>
       <c r="C642" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D642">
         <v>0</v>
@@ -14077,33 +14066,30 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B643">
         <v>90</v>
       </c>
       <c r="C643" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D643">
         <v>0</v>
       </c>
       <c r="E643">
         <v>0</v>
-      </c>
-      <c r="F643">
-        <v>400000</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B644">
         <v>90</v>
       </c>
       <c r="C644" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D644">
         <v>0</v>
@@ -14114,33 +14100,30 @@
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B645">
         <v>90</v>
       </c>
       <c r="C645" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D645">
         <v>0</v>
       </c>
       <c r="E645">
         <v>0</v>
-      </c>
-      <c r="F645">
-        <v>80000</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B646">
         <v>90</v>
       </c>
       <c r="C646" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D646">
         <v>0</v>
@@ -14151,13 +14134,13 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B647">
         <v>90</v>
       </c>
       <c r="C647" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D647">
         <v>0</v>
@@ -14166,38 +14149,35 @@
         <v>0</v>
       </c>
       <c r="F647">
-        <v>20000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B648">
         <v>90</v>
       </c>
       <c r="C648" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D648">
         <v>0</v>
       </c>
       <c r="E648">
         <v>0</v>
-      </c>
-      <c r="F648">
-        <v>240000</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B649">
         <v>90</v>
       </c>
       <c r="C649" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D649">
         <v>0</v>
@@ -14208,13 +14188,13 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B650">
         <v>90</v>
       </c>
       <c r="C650" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D650">
         <v>0</v>
@@ -14225,30 +14205,33 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B651">
         <v>90</v>
       </c>
       <c r="C651" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D651">
         <v>0</v>
       </c>
       <c r="E651">
         <v>0</v>
+      </c>
+      <c r="F651">
+        <v>136500</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B652">
         <v>90</v>
       </c>
       <c r="C652" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D652">
         <v>0</v>
@@ -14257,35 +14240,38 @@
         <v>0</v>
       </c>
       <c r="F652">
-        <v>210000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B653">
         <v>90</v>
       </c>
       <c r="C653" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D653">
         <v>0</v>
       </c>
       <c r="E653">
         <v>0</v>
+      </c>
+      <c r="F653">
+        <v>400000</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B654">
         <v>90</v>
       </c>
       <c r="C654" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D654">
         <v>0</v>
@@ -14294,55 +14280,55 @@
         <v>0</v>
       </c>
       <c r="F654">
-        <v>62400</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B655">
         <v>90</v>
       </c>
       <c r="C655" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D655">
         <v>0</v>
       </c>
       <c r="E655">
         <v>0</v>
+      </c>
+      <c r="F655">
+        <v>480000</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B656">
         <v>90</v>
       </c>
       <c r="C656" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D656">
         <v>0</v>
       </c>
       <c r="E656">
         <v>0</v>
-      </c>
-      <c r="F656">
-        <v>480000</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B657">
         <v>90</v>
       </c>
       <c r="C657" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D657">
         <v>0</v>
@@ -14353,47 +14339,53 @@
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B658">
         <v>90</v>
       </c>
       <c r="C658" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D658">
         <v>0</v>
       </c>
       <c r="E658">
         <v>0</v>
+      </c>
+      <c r="F658">
+        <v>480000</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B659">
         <v>90</v>
       </c>
       <c r="C659" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D659">
         <v>0</v>
       </c>
       <c r="E659">
         <v>0</v>
+      </c>
+      <c r="F659">
+        <v>216000</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B660">
         <v>90</v>
       </c>
       <c r="C660" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D660">
         <v>0</v>
@@ -14404,13 +14396,13 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B661">
         <v>90</v>
       </c>
       <c r="C661" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D661">
         <v>0</v>
@@ -14419,18 +14411,18 @@
         <v>0</v>
       </c>
       <c r="F661">
-        <v>216000</v>
+        <v>62400</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B662">
         <v>90</v>
       </c>
       <c r="C662" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D662">
         <v>0</v>
@@ -14441,33 +14433,30 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B663">
         <v>90</v>
       </c>
       <c r="C663" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D663">
         <v>0</v>
       </c>
       <c r="E663">
         <v>0</v>
-      </c>
-      <c r="F663">
-        <v>350000</v>
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B664">
         <v>90</v>
       </c>
       <c r="C664" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D664">
         <v>0</v>
@@ -14481,19 +14470,22 @@
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B665">
         <v>90</v>
       </c>
       <c r="C665" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D665">
         <v>0</v>
       </c>
       <c r="E665">
         <v>0</v>
+      </c>
+      <c r="F665">
+        <v>350000</v>
       </c>
     </row>
   </sheetData>
